--- a/output/c6/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6/c6aurac_brawler_levels_team.xlsx
@@ -295,7 +295,7 @@
     <t>C6 Brawler Levels</t>
   </si>
   <si>
-    <t>2022-11-15</t>
+    <t>2022-11-16</t>
   </si>
 </sst>
 </file>

--- a/output/c6/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6/c6aurac_brawler_levels_team.xlsx
@@ -232,10 +232,10 @@
     <t>EVE, GRIFF, JANET, SHELLY</t>
   </si>
   <si>
-    <t xml:space="preserve">AMBER, ASH, BARLEY, BONNIE, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CROW, EVE, ... </t>
-  </si>
-  <si>
-    <t>BUZZ</t>
+    <t xml:space="preserve">AMBER, ASH, BARLEY, BO, BONNIE, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CROW, ... </t>
+  </si>
+  <si>
+    <t>BUZZ, PENNY</t>
   </si>
   <si>
     <t xml:space="preserve">BEA, BO, BYRON, CARL, CROW, GENE, GRIFF, MAX, PAM, ROSA, RUFFS, SANDY, ... </t>
@@ -280,7 +280,7 @@
     <t>MORTIS, RICO</t>
   </si>
   <si>
-    <t>BO, DARRYL, PAM, PENNY, RICO</t>
+    <t>BO, DARRYL, LOLA, PAM, PENNY, RICO</t>
   </si>
   <si>
     <t>CROW, EVE, MORTIS, SPIKE</t>
@@ -737,7 +737,7 @@
         <v>36</v>
       </c>
       <c r="D2" s="2">
-        <v>34707</v>
+        <v>34760</v>
       </c>
       <c r="E2" s="2">
         <v>34</v>
@@ -789,7 +789,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="2">
-        <v>34707</v>
+        <v>34760</v>
       </c>
       <c r="E4" s="2">
         <v>34</v>
@@ -815,7 +815,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="2">
-        <v>29471</v>
+        <v>29489</v>
       </c>
       <c r="E5" s="2">
         <v>41</v>
@@ -841,7 +841,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="2">
-        <v>35482</v>
+        <v>35527</v>
       </c>
       <c r="E6" s="2">
         <v>29</v>
@@ -867,7 +867,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="2">
-        <v>23816</v>
+        <v>23770</v>
       </c>
       <c r="E7" s="2">
         <v>21</v>
@@ -893,7 +893,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="2">
-        <v>33115</v>
+        <v>33251</v>
       </c>
       <c r="E8" s="2">
         <v>28</v>
@@ -919,7 +919,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="2">
-        <v>34838</v>
+        <v>34848</v>
       </c>
       <c r="E9" s="2">
         <v>30</v>
@@ -971,7 +971,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="2">
-        <v>30419</v>
+        <v>30569</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
@@ -997,16 +997,16 @@
         <v>44</v>
       </c>
       <c r="D12" s="2">
-        <v>37124</v>
+        <v>37209</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>72</v>
@@ -1023,16 +1023,16 @@
         <v>45</v>
       </c>
       <c r="D13" s="2">
-        <v>12311</v>
+        <v>12298</v>
       </c>
       <c r="E13" s="2">
         <v>8</v>
       </c>
       <c r="F13" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>73</v>
@@ -1049,7 +1049,7 @@
         <v>46</v>
       </c>
       <c r="D14" s="2">
-        <v>33789</v>
+        <v>33820</v>
       </c>
       <c r="E14" s="2">
         <v>32</v>
@@ -1075,7 +1075,7 @@
         <v>47</v>
       </c>
       <c r="D15" s="2">
-        <v>34062</v>
+        <v>34061</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>48</v>
       </c>
       <c r="D16" s="2">
-        <v>32525</v>
+        <v>32530</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
@@ -1127,7 +1127,7 @@
         <v>49</v>
       </c>
       <c r="D17" s="2">
-        <v>33566</v>
+        <v>33628</v>
       </c>
       <c r="E17" s="2">
         <v>37</v>
@@ -1179,7 +1179,7 @@
         <v>51</v>
       </c>
       <c r="D19" s="2">
-        <v>33225</v>
+        <v>33362</v>
       </c>
       <c r="E19" s="2">
         <v>20</v>
@@ -1205,7 +1205,7 @@
         <v>52</v>
       </c>
       <c r="D20" s="2">
-        <v>30870</v>
+        <v>31004</v>
       </c>
       <c r="E20" s="2">
         <v>19</v>
@@ -1231,7 +1231,7 @@
         <v>53</v>
       </c>
       <c r="D21" s="2">
-        <v>31278</v>
+        <v>31288</v>
       </c>
       <c r="E21" s="2">
         <v>28</v>
@@ -1257,7 +1257,7 @@
         <v>54</v>
       </c>
       <c r="D22" s="2">
-        <v>34503</v>
+        <v>34526</v>
       </c>
       <c r="E22" s="2">
         <v>24</v>
@@ -1283,7 +1283,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="2">
-        <v>30988</v>
+        <v>30975</v>
       </c>
       <c r="E23" s="2">
         <v>27</v>
@@ -1309,7 +1309,7 @@
         <v>56</v>
       </c>
       <c r="D24" s="2">
-        <v>19486</v>
+        <v>19654</v>
       </c>
       <c r="E24" s="2">
         <v>5</v>
@@ -1335,7 +1335,7 @@
         <v>57</v>
       </c>
       <c r="D25" s="2">
-        <v>37542</v>
+        <v>37600</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -1361,7 +1361,7 @@
         <v>58</v>
       </c>
       <c r="D26" s="2">
-        <v>37833</v>
+        <v>37892</v>
       </c>
       <c r="E26" s="2">
         <v>17</v>
@@ -1390,7 +1390,7 @@
         <v>8194</v>
       </c>
       <c r="E27" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F27" s="2">
         <v>3</v>
@@ -1413,16 +1413,16 @@
         <v>60</v>
       </c>
       <c r="D28" s="2">
-        <v>6658</v>
+        <v>6798</v>
       </c>
       <c r="E28" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>88</v>
@@ -1491,7 +1491,7 @@
         <v>63</v>
       </c>
       <c r="D31" s="2">
-        <v>30979</v>
+        <v>31010</v>
       </c>
       <c r="E31" s="2">
         <v>33</v>

--- a/output/c6/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6/c6aurac_brawler_levels_team.xlsx
@@ -295,7 +295,7 @@
     <t>C6 Brawler Levels</t>
   </si>
   <si>
-    <t>2022-11-16</t>
+    <t>2022-11-17</t>
   </si>
 </sst>
 </file>

--- a/output/c6/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6/c6aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
   <si>
     <t>player</t>
   </si>
@@ -61,9 +61,6 @@
     <t>RayDaBest</t>
   </si>
   <si>
-    <t>Zain🗡</t>
-  </si>
-  <si>
     <t>komji</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>Snoopy&gt;.&lt;|をゆひせぬ</t>
   </si>
   <si>
-    <t>Wailing Swan</t>
-  </si>
-  <si>
     <t>H¥DRA|HANZLA ¢</t>
   </si>
   <si>
@@ -124,6 +118,9 @@
     <t>shauntws</t>
   </si>
   <si>
+    <t>RICOFTW</t>
+  </si>
+  <si>
     <t>#JVQP8LLY</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>#200U2RLLV</t>
   </si>
   <si>
-    <t>#PUG0GYCR8</t>
-  </si>
-  <si>
     <t>#8J9V9U02L</t>
   </si>
   <si>
@@ -163,9 +157,6 @@
     <t>#C9RCCU8J</t>
   </si>
   <si>
-    <t>#2LYQPR8G9</t>
-  </si>
-  <si>
     <t>#8YGQJCUVR</t>
   </si>
   <si>
@@ -208,7 +199,10 @@
     <t>#GJCYYV0P</t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BELLE, BIBI, BO, BROCK, BYRON, CARL, COLT, DARRYL, EMZ, EVE, GALE, ... </t>
+    <t>#9ULG0RR8V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BELLE, BIBI, BO, BROCK, BYRON, CARL, COLT, CROW, DARRYL, EMZ, EVE, ... </t>
   </si>
   <si>
     <t>BARLEY, BO, CROW, DARRYL, EMZ, JESSIE, NANI, NITA, PENNY, SANDY, STU, TICK</t>
@@ -223,34 +217,28 @@
     <t xml:space="preserve">BONNIE, BROCK, BUZZ, DARRYL, EMZ, GENE, GRIFF, LOLA, MAX, MEG, PAM, POCO, ... </t>
   </si>
   <si>
-    <t>ASH, CROW, FANG, MORTIS, SPIKE, STU, SURGE</t>
+    <t>ASH, BEA, BUSTER, CARL, CROW, FANG, MORTIS, SPIKE, STU, SURGE</t>
   </si>
   <si>
     <t>8-BIT, ASH, BIBI, TICK</t>
   </si>
   <si>
-    <t>EVE, GRIFF, JANET, SHELLY</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMBER, ASH, BARLEY, BO, BONNIE, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CROW, ... </t>
   </si>
   <si>
     <t>BUZZ, PENNY</t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BO, BYRON, CARL, CROW, GENE, GRIFF, MAX, PAM, ROSA, RUFFS, SANDY, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUZZ, ... </t>
-  </si>
-  <si>
-    <t>8-BIT, EDGAR, MEG, PENNY, POCO, STU</t>
-  </si>
-  <si>
-    <t>BEA, CROW, GRIFF, LEON, MORTIS, RICO, SANDY, STU, SURGE</t>
-  </si>
-  <si>
-    <t>BO, EMZ, EVE, MAX, POCO, RICO, SANDY, SPIKE, STU</t>
+    <t xml:space="preserve">BEA, BO, BYRON, CARL, CROW, GENE, GRIFF, MAX, PAM, POCO, ROSA, RUFFS, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
+  </si>
+  <si>
+    <t>8-BIT, BUSTER, EDGAR, MEG, PENNY, POCO, STU</t>
+  </si>
+  <si>
+    <t>BO, BROCK, EMZ, EVE, MAX, POCO, RICO, SANDY, SPIKE, STU</t>
   </si>
   <si>
     <t>BEA, CARL, COLT, EMZ, GENE, JACKY, MAX, MORTIS, SURGE, TARA</t>
@@ -259,7 +247,7 @@
     <t>COLT, MORTIS, STU</t>
   </si>
   <si>
-    <t>BELLE, BYRON, CROW, GRIFF, JANET, PIPER, POCO, SQUEAK, STU, SURGE</t>
+    <t>BELLE, BYRON, CROW, GRIFF, GUS, JANET, PIPER, POCO, SQUEAK, STU, SURGE</t>
   </si>
   <si>
     <t xml:space="preserve">ASH, BELLE, BO, BONNIE, CARL, CROW, EMZ, EVE, GENE, GRIFF, GUS, JANET, ... </t>
@@ -268,10 +256,10 @@
     <t>ASH, EVE, GRIFF, LOLA, LOU, NANI, POCO, SPIKE, TICK</t>
   </si>
   <si>
-    <t xml:space="preserve">BONNIE, BROCK, CARL, CROW, EMZ, FANG, GUS, JANET, OTIS, PENNY, POCO, SPIKE, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARLEY, BELLE, BO, BYRON, COLT, CROW, DARRYL, EMZ, GRIFF, MR. P, NITA, OTIS, ... </t>
+    <t xml:space="preserve">BONNIE, BROCK, CARL, CROW, EMZ, FANG, GUS, JANET, LEON, OTIS, PENNY, POCO, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARLEY, BELLE, BIBI, BO, BYRON, COLT, CROW, DARRYL, EMZ, GRIFF, LOU, MR. P, ... </t>
   </si>
   <si>
     <t xml:space="preserve">ASH, BELLE, BO, BROCK, CARL, COLETTE, CROW, DARRYL, EDGAR, EMZ, GALE, GRIFF, ... </t>
@@ -286,16 +274,16 @@
     <t>CROW, EVE, MORTIS, SPIKE</t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
-  </si>
-  <si>
     <t>ASH, BYRON, EMZ, EVE, GENE, GRIFF, SANDY</t>
   </si>
   <si>
+    <t>COLT, GROM, JESSIE, PENNY, RICO</t>
+  </si>
+  <si>
     <t>C6 Brawler Levels</t>
   </si>
   <si>
-    <t>2022-11-17</t>
+    <t>2022-11-22</t>
   </si>
 </sst>
 </file>
@@ -666,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS31"/>
+  <dimension ref="A1:AS30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -679,7 +667,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -728,28 +716,28 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
-        <v>34760</v>
+        <v>35006</v>
       </c>
       <c r="E2" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -786,22 +774,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
-        <v>34760</v>
+        <v>35006</v>
       </c>
       <c r="E4" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -812,22 +800,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2">
-        <v>29489</v>
+        <v>29682</v>
       </c>
       <c r="E5" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="2">
         <v>12</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -838,22 +826,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2">
-        <v>35527</v>
+        <v>35726</v>
       </c>
       <c r="E6" s="2">
         <v>29</v>
       </c>
       <c r="F6" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2">
         <v>24</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -864,10 +852,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2">
-        <v>23770</v>
+        <v>23873</v>
       </c>
       <c r="E7" s="2">
         <v>21</v>
@@ -879,7 +867,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -890,10 +878,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2">
-        <v>33251</v>
+        <v>33559</v>
       </c>
       <c r="E8" s="2">
         <v>28</v>
@@ -905,7 +893,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -916,22 +904,22 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2">
-        <v>34848</v>
+        <v>35052</v>
       </c>
       <c r="E9" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -942,10 +930,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2">
-        <v>36421</v>
+        <v>36451</v>
       </c>
       <c r="E10" s="2">
         <v>23</v>
@@ -957,7 +945,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -968,22 +956,22 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2">
-        <v>30569</v>
+        <v>37612</v>
       </c>
       <c r="E11" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -991,25 +979,25 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2">
-        <v>37209</v>
+        <v>12377</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12" s="2">
         <v>33</v>
       </c>
       <c r="G12" s="2">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1020,22 +1008,22 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2">
-        <v>12298</v>
+        <v>33912</v>
       </c>
       <c r="E13" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1043,25 +1031,25 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2">
-        <v>33820</v>
+        <v>34312</v>
       </c>
       <c r="E14" s="2">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1072,22 +1060,22 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2">
-        <v>34061</v>
+        <v>32725</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G15" s="2">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1095,25 +1083,25 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2">
-        <v>32530</v>
+        <v>16174</v>
       </c>
       <c r="E16" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G16" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1121,25 +1109,25 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="2">
-        <v>33628</v>
+        <v>33426</v>
       </c>
       <c r="E17" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G17" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1150,22 +1138,22 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2">
-        <v>16164</v>
+        <v>31306</v>
       </c>
       <c r="E18" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F18" s="2">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="2">
-        <v>9</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1173,25 +1161,25 @@
         <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2">
-        <v>33362</v>
+        <v>31316</v>
       </c>
       <c r="E19" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F19" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G19" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1199,25 +1187,25 @@
         <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="2">
-        <v>31004</v>
+        <v>34781</v>
       </c>
       <c r="E20" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F20" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G20" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1228,22 +1216,22 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="2">
         <v>31288</v>
       </c>
       <c r="E21" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1251,25 +1239,25 @@
         <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2">
-        <v>34526</v>
+        <v>19847</v>
       </c>
       <c r="E22" s="2">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F22" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G22" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1277,25 +1265,25 @@
         <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2">
-        <v>30975</v>
+        <v>37743</v>
       </c>
       <c r="E23" s="2">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F23" s="2">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="G23" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1306,22 +1294,22 @@
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="2">
-        <v>19654</v>
+        <v>38016</v>
       </c>
       <c r="E24" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F24" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1329,25 +1317,25 @@
         <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="2">
-        <v>37600</v>
+        <v>8254</v>
       </c>
       <c r="E25" s="2">
+        <v>23</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2">
         <v>2</v>
       </c>
-      <c r="F25" s="2">
-        <v>41</v>
-      </c>
-      <c r="G25" s="2">
-        <v>17</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1355,25 +1343,25 @@
         <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="2">
-        <v>37892</v>
+        <v>6854</v>
       </c>
       <c r="E26" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F26" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1384,22 +1372,22 @@
         <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="2">
-        <v>8194</v>
+        <v>24874</v>
       </c>
       <c r="E27" s="2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="G27" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1407,25 +1395,25 @@
         <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="2">
-        <v>6798</v>
+        <v>31651</v>
       </c>
       <c r="E28" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1433,39 +1421,37 @@
         <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="2">
-        <v>24874</v>
+        <v>31064</v>
       </c>
       <c r="E29" s="2">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F29" s="2">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="G29" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="2">
-        <v>10</v>
-      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="2">
-        <v>31649</v>
+        <v>5474</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -1474,36 +1460,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="2">
-        <v>10</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="2">
-        <v>31010</v>
-      </c>
-      <c r="E31" s="2">
-        <v>33</v>
-      </c>
-      <c r="F31" s="2">
-        <v>20</v>
-      </c>
-      <c r="G31" s="2">
-        <v>7</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1471,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H31">
+  <conditionalFormatting sqref="A2:H29">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c6/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6/c6aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="108">
   <si>
     <t>player</t>
   </si>
@@ -28,6 +28,12 @@
     <t>trophies</t>
   </si>
   <si>
+    <t>highest_pl_rank_score</t>
+  </si>
+  <si>
+    <t>highest_pl_rank</t>
+  </si>
+  <si>
     <t>level_9s</t>
   </si>
   <si>
@@ -64,12 +70,18 @@
     <t>komji</t>
   </si>
   <si>
+    <t>宇智波鼬</t>
+  </si>
+  <si>
     <t>KMB | ɴᴀᴛᴛɪᴇ♡</t>
   </si>
   <si>
     <t>_mym_</t>
   </si>
   <si>
+    <t>IX|LIT</t>
+  </si>
+  <si>
     <t>Omz</t>
   </si>
   <si>
@@ -79,12 +91,12 @@
     <t>H¥DRA|HANZLA ¢</t>
   </si>
   <si>
+    <t>Ninja❦</t>
+  </si>
+  <si>
     <t>Saurav</t>
   </si>
   <si>
-    <t>⛩|Ninja64🎋</t>
-  </si>
-  <si>
     <t>Blaze</t>
   </si>
   <si>
@@ -112,15 +124,15 @@
     <t>sasameseed</t>
   </si>
   <si>
+    <t>RICOFTW</t>
+  </si>
+  <si>
     <t>Synderella</t>
   </si>
   <si>
     <t>shauntws</t>
   </si>
   <si>
-    <t>RICOFTW</t>
-  </si>
-  <si>
     <t>#JVQP8LLY</t>
   </si>
   <si>
@@ -145,12 +157,18 @@
     <t>#8J9V9U02L</t>
   </si>
   <si>
+    <t>#VR2Q28UG</t>
+  </si>
+  <si>
     <t>#2CQYQU0QQ</t>
   </si>
   <si>
     <t>#82808UG9G</t>
   </si>
   <si>
+    <t>#8V09Y2Y8</t>
+  </si>
+  <si>
     <t>#8L00JQGP9</t>
   </si>
   <si>
@@ -160,12 +178,12 @@
     <t>#8YGQJCUVR</t>
   </si>
   <si>
+    <t>#9JVYLJY</t>
+  </si>
+  <si>
     <t>#U2Q9L2QU</t>
   </si>
   <si>
-    <t>#9JVYLJY</t>
-  </si>
-  <si>
     <t>#C0R8YQC</t>
   </si>
   <si>
@@ -193,13 +211,43 @@
     <t>#8999QQCPC</t>
   </si>
   <si>
+    <t>#9ULG0RR8V</t>
+  </si>
+  <si>
     <t>#R80JC998</t>
   </si>
   <si>
     <t>#GJCYYV0P</t>
   </si>
   <si>
-    <t>#9ULG0RR8V</t>
+    <t>Diamond I</t>
+  </si>
+  <si>
+    <t>Gold II</t>
+  </si>
+  <si>
+    <t>Gold III</t>
+  </si>
+  <si>
+    <t>Diamond II</t>
+  </si>
+  <si>
+    <t>Diamond III</t>
+  </si>
+  <si>
+    <t>Mythic III</t>
+  </si>
+  <si>
+    <t>Gold I</t>
+  </si>
+  <si>
+    <t>Mythic I</t>
+  </si>
+  <si>
+    <t>Mythic II</t>
+  </si>
+  <si>
+    <t>Legend I</t>
   </si>
   <si>
     <t xml:space="preserve">BEA, BELLE, BIBI, BO, BROCK, BYRON, CARL, COLT, CROW, DARRYL, EMZ, EVE, ... </t>
@@ -226,12 +274,18 @@
     <t xml:space="preserve">AMBER, ASH, BARLEY, BO, BONNIE, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CROW, ... </t>
   </si>
   <si>
+    <t>EMZ, MORTIS, PIPER, POCO, SQUEAK</t>
+  </si>
+  <si>
     <t>BUZZ, PENNY</t>
   </si>
   <si>
     <t xml:space="preserve">BEA, BO, BYRON, CARL, CROW, GENE, GRIFF, MAX, PAM, POCO, ROSA, RUFFS, ... </t>
   </si>
   <si>
+    <t>BIBI, MORTIS, RICO</t>
+  </si>
+  <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
   </si>
   <si>
@@ -241,12 +295,12 @@
     <t>BO, BROCK, EMZ, EVE, MAX, POCO, RICO, SANDY, SPIKE, STU</t>
   </si>
   <si>
+    <t>COLT, MORTIS, STU</t>
+  </si>
+  <si>
     <t>BEA, CARL, COLT, EMZ, GENE, JACKY, MAX, MORTIS, SURGE, TARA</t>
   </si>
   <si>
-    <t>COLT, MORTIS, STU</t>
-  </si>
-  <si>
     <t>BELLE, BYRON, CROW, GRIFF, GUS, JANET, PIPER, POCO, SQUEAK, STU, SURGE</t>
   </si>
   <si>
@@ -259,7 +313,7 @@
     <t xml:space="preserve">BONNIE, BROCK, CARL, CROW, EMZ, FANG, GUS, JANET, LEON, OTIS, PENNY, POCO, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BARLEY, BELLE, BIBI, BO, BYRON, COLT, CROW, DARRYL, EMZ, GRIFF, LOU, MR. P, ... </t>
+    <t xml:space="preserve">BARLEY, BELLE, BIBI, BO, BYRON, COLT, CROW, DARRYL, EMZ, EVE, GRIFF, LOU, ... </t>
   </si>
   <si>
     <t xml:space="preserve">ASH, BELLE, BO, BROCK, CARL, COLETTE, CROW, DARRYL, EDGAR, EMZ, GALE, GRIFF, ... </t>
@@ -274,16 +328,16 @@
     <t>CROW, EVE, MORTIS, SPIKE</t>
   </si>
   <si>
+    <t>COLT, GROM, JESSIE, PENNY, RICO</t>
+  </si>
+  <si>
     <t>ASH, BYRON, EMZ, EVE, GENE, GRIFF, SANDY</t>
   </si>
   <si>
-    <t>COLT, GROM, JESSIE, PENNY, RICO</t>
-  </si>
-  <si>
     <t>C6 Brawler Levels</t>
   </si>
   <si>
-    <t>2022-11-22</t>
+    <t>2022-11-25</t>
   </si>
 </sst>
 </file>
@@ -654,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS30"/>
+  <dimension ref="A1:AS32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,7 +721,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -716,28 +770,34 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2">
-        <v>35006</v>
+        <v>35077</v>
       </c>
       <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2">
         <v>31</v>
       </c>
-      <c r="F2" s="2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2">
         <v>27</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>62</v>
+      <c r="J2" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -765,705 +825,939 @@
       <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:45">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2">
-        <v>35006</v>
+        <v>35077</v>
       </c>
       <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="2">
         <v>31</v>
       </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
         <v>27</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>62</v>
+      <c r="J4" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:45">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2">
-        <v>29682</v>
+        <v>29721</v>
       </c>
       <c r="E5" s="2">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="2">
         <v>40</v>
       </c>
-      <c r="F5" s="2">
+      <c r="H5" s="2">
         <v>8</v>
       </c>
-      <c r="G5" s="2">
+      <c r="I5" s="2">
         <v>12</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>63</v>
+      <c r="J5" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:45">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2">
-        <v>35726</v>
+        <v>35728</v>
       </c>
       <c r="E6" s="2">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2">
         <v>8</v>
       </c>
-      <c r="G6" s="2">
+      <c r="I6" s="2">
         <v>24</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>64</v>
+      <c r="J6" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:45">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2">
-        <v>23873</v>
+        <v>23950</v>
       </c>
       <c r="E7" s="2">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="2">
         <v>21</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>3</v>
       </c>
-      <c r="G7" s="2">
-        <v>6</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>65</v>
+      <c r="I7" s="2">
+        <v>7</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:45">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2">
-        <v>33559</v>
+        <v>33619</v>
       </c>
       <c r="E8" s="2">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G8" s="2">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>66</v>
+      <c r="J8" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:45">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2">
-        <v>35052</v>
+        <v>35243</v>
       </c>
       <c r="E9" s="2">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="G9" s="2">
-        <v>10</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>67</v>
+        <v>28</v>
+      </c>
+      <c r="H9" s="2">
+        <v>14</v>
+      </c>
+      <c r="I9" s="2">
+        <v>11</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2">
         <v>36451</v>
       </c>
       <c r="E10" s="2">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="2">
         <v>23</v>
       </c>
-      <c r="F10" s="2">
+      <c r="H10" s="2">
         <v>26</v>
       </c>
-      <c r="G10" s="2">
+      <c r="I10" s="2">
         <v>4</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>68</v>
+      <c r="J10" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:45">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2">
-        <v>37612</v>
+        <v>38267</v>
       </c>
       <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2">
-        <v>33</v>
-      </c>
-      <c r="G11" s="2">
-        <v>28</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>69</v>
+      <c r="H11" s="2">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2">
+        <v>29</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:45">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2">
-        <v>12377</v>
+        <v>28224</v>
       </c>
       <c r="E12" s="2">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="2">
+        <v>40</v>
+      </c>
+      <c r="H12" s="2">
+        <v>8</v>
+      </c>
+      <c r="I12" s="2">
         <v>5</v>
       </c>
-      <c r="F12" s="2">
-        <v>33</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>70</v>
+      <c r="J12" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:45">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2">
-        <v>33912</v>
+        <v>12401</v>
       </c>
       <c r="E13" s="2">
-        <v>31</v>
-      </c>
-      <c r="F13" s="2">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="G13" s="2">
-        <v>16</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="H13" s="2">
+        <v>33</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:45">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2">
-        <v>34312</v>
+        <v>33949</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="G14" s="2">
-        <v>61</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>72</v>
+        <v>31</v>
+      </c>
+      <c r="H14" s="2">
+        <v>10</v>
+      </c>
+      <c r="I14" s="2">
+        <v>17</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:45">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2">
-        <v>32725</v>
+        <v>31250</v>
       </c>
       <c r="E15" s="2">
-        <v>11</v>
-      </c>
-      <c r="F15" s="2">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="G15" s="2">
-        <v>7</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>73</v>
+        <v>40</v>
+      </c>
+      <c r="H15" s="2">
+        <v>10</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:45">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2">
-        <v>16174</v>
+        <v>34596</v>
       </c>
       <c r="E16" s="2">
-        <v>10</v>
-      </c>
-      <c r="F16" s="2">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G16" s="2">
-        <v>10</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>61</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2">
-        <v>33426</v>
+        <v>33365</v>
       </c>
       <c r="E17" s="2">
-        <v>19</v>
-      </c>
-      <c r="F17" s="2">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="G17" s="2">
-        <v>10</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2">
+        <v>37</v>
+      </c>
+      <c r="I17" s="2">
+        <v>7</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2">
-        <v>31306</v>
+        <v>16174</v>
       </c>
       <c r="E18" s="2">
-        <v>31</v>
-      </c>
-      <c r="F18" s="2">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G18" s="2">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2">
         <v>3</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2">
+        <v>10</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2">
-        <v>31316</v>
+        <v>31856</v>
       </c>
       <c r="E19" s="2">
-        <v>28</v>
-      </c>
-      <c r="F19" s="2">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="G19" s="2">
-        <v>11</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="H19" s="2">
+        <v>10</v>
+      </c>
+      <c r="I19" s="2">
+        <v>4</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2">
-        <v>34781</v>
+        <v>33527</v>
       </c>
       <c r="E20" s="2">
-        <v>24</v>
-      </c>
-      <c r="F20" s="2">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G20" s="2">
-        <v>25</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="H20" s="2">
+        <v>22</v>
+      </c>
+      <c r="I20" s="2">
+        <v>10</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2">
-        <v>31288</v>
+        <v>31355</v>
       </c>
       <c r="E21" s="2">
-        <v>26</v>
-      </c>
-      <c r="F21" s="2">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="2">
+        <v>28</v>
+      </c>
+      <c r="H21" s="2">
+        <v>16</v>
+      </c>
+      <c r="I21" s="2">
+        <v>11</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2">
+        <v>34890</v>
+      </c>
+      <c r="E22" s="2">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="2">
+        <v>23</v>
+      </c>
+      <c r="H22" s="2">
+        <v>12</v>
+      </c>
+      <c r="I22" s="2">
+        <v>25</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="2">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="2">
+        <v>31327</v>
+      </c>
+      <c r="E23" s="2">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="2">
+        <v>27</v>
+      </c>
+      <c r="H23" s="2">
         <v>18</v>
       </c>
-      <c r="G21" s="2">
+      <c r="I23" s="2">
         <v>9</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2">
-        <v>8</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="2">
-        <v>19847</v>
-      </c>
-      <c r="E22" s="2">
-        <v>6</v>
-      </c>
-      <c r="F22" s="2">
-        <v>3</v>
-      </c>
-      <c r="G22" s="2">
-        <v>14</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2">
-        <v>8</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="2">
-        <v>37743</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2">
-        <v>39</v>
-      </c>
-      <c r="G23" s="2">
-        <v>20</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="J23" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2">
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2">
-        <v>38016</v>
+        <v>19847</v>
       </c>
       <c r="E24" s="2">
+        <v>16</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="2">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3</v>
+      </c>
+      <c r="I24" s="2">
+        <v>14</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="2">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="2">
+        <v>37857</v>
+      </c>
+      <c r="E25" s="2">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>40</v>
+      </c>
+      <c r="I25" s="2">
+        <v>21</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="2">
+        <v>38062</v>
+      </c>
+      <c r="E26" s="2">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="2">
         <v>17</v>
       </c>
-      <c r="F24" s="2">
+      <c r="H26" s="2">
         <v>10</v>
       </c>
-      <c r="G24" s="2">
+      <c r="I26" s="2">
         <v>28</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="2">
-        <v>9</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="2">
-        <v>8254</v>
-      </c>
-      <c r="E25" s="2">
-        <v>23</v>
-      </c>
-      <c r="F25" s="2">
-        <v>3</v>
-      </c>
-      <c r="G25" s="2">
-        <v>2</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="2">
-        <v>9</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="2">
-        <v>6854</v>
-      </c>
-      <c r="E26" s="2">
-        <v>5</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>6</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J26" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2">
         <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2">
+        <v>8241</v>
+      </c>
+      <c r="E27" s="2">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="2">
+        <v>24</v>
+      </c>
+      <c r="H27" s="2">
+        <v>3</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="2">
+        <v>6862</v>
+      </c>
+      <c r="E28" s="2">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="2">
+        <v>5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>6</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="2">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="2">
         <v>24874</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E29" s="2">
+        <v>8</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="2">
+      <c r="H29" s="2">
         <v>54</v>
       </c>
-      <c r="G27" s="2">
+      <c r="I29" s="2">
         <v>4</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="2">
+      <c r="J29" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2">
         <v>10</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="2">
-        <v>31651</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>61</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="2">
-        <v>10</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="2">
-        <v>31064</v>
-      </c>
-      <c r="E29" s="2">
-        <v>33</v>
-      </c>
-      <c r="F29" s="2">
-        <v>20</v>
-      </c>
-      <c r="G29" s="2">
-        <v>7</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D30" s="2">
         <v>5474</v>
       </c>
       <c r="E30" s="2">
+        <v>16</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="2">
         <v>0</v>
       </c>
-      <c r="F30" s="2">
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>5</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="2">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="2">
+        <v>31651</v>
+      </c>
+      <c r="E31" s="2">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="2">
         <v>0</v>
       </c>
-      <c r="G30" s="2">
-        <v>5</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>87</v>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>61</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="2">
+        <v>31160</v>
+      </c>
+      <c r="E32" s="2">
+        <v>12</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="2">
+        <v>33</v>
+      </c>
+      <c r="H32" s="2">
+        <v>20</v>
+      </c>
+      <c r="I32" s="2">
+        <v>7</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1765,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H29">
+  <conditionalFormatting sqref="A2:H32">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c6/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6/c6aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
   <si>
     <t>player</t>
   </si>
@@ -28,10 +28,10 @@
     <t>trophies</t>
   </si>
   <si>
-    <t>highest_pl_rank_score</t>
-  </si>
-  <si>
-    <t>highest_pl_rank</t>
+    <t>pl_score</t>
+  </si>
+  <si>
+    <t>pl_rank</t>
   </si>
   <si>
     <t>level_9s</t>
@@ -220,33 +220,27 @@
     <t>#GJCYYV0P</t>
   </si>
   <si>
+    <t>Silver III</t>
+  </si>
+  <si>
+    <t>Diamond III</t>
+  </si>
+  <si>
+    <t>Diamond II</t>
+  </si>
+  <si>
+    <t>Mythic II</t>
+  </si>
+  <si>
+    <t>Gold II</t>
+  </si>
+  <si>
     <t>Diamond I</t>
   </si>
   <si>
-    <t>Gold II</t>
-  </si>
-  <si>
-    <t>Gold III</t>
-  </si>
-  <si>
-    <t>Diamond II</t>
-  </si>
-  <si>
-    <t>Diamond III</t>
-  </si>
-  <si>
-    <t>Mythic III</t>
-  </si>
-  <si>
     <t>Gold I</t>
   </si>
   <si>
-    <t>Mythic I</t>
-  </si>
-  <si>
-    <t>Mythic II</t>
-  </si>
-  <si>
     <t>Legend I</t>
   </si>
   <si>
@@ -316,7 +310,7 @@
     <t xml:space="preserve">BARLEY, BELLE, BIBI, BO, BYRON, COLT, CROW, DARRYL, EMZ, EVE, GRIFF, LOU, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BELLE, BO, BROCK, CARL, COLETTE, CROW, DARRYL, EDGAR, EMZ, GALE, GRIFF, ... </t>
+    <t xml:space="preserve">ASH, BEA, BELLE, BO, BROCK, CARL, COLETTE, CROW, DARRYL, EDGAR, EMZ, GALE, ... </t>
   </si>
   <si>
     <t>MORTIS, RICO</t>
@@ -721,7 +715,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -770,7 +764,7 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -782,22 +776,20 @@
         <v>35077</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2">
         <v>31</v>
       </c>
       <c r="H2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="2">
         <v>27</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -846,22 +838,20 @@
         <v>35077</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>31</v>
       </c>
       <c r="H4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2">
         <v>27</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -875,13 +865,13 @@
         <v>40</v>
       </c>
       <c r="D5" s="2">
-        <v>29721</v>
+        <v>29764</v>
       </c>
       <c r="E5" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" s="2">
         <v>40</v>
@@ -893,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -910,13 +900,11 @@
         <v>35728</v>
       </c>
       <c r="E6" s="2">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2">
         <v>8</v>
@@ -925,7 +913,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -942,11 +930,9 @@
         <v>23950</v>
       </c>
       <c r="E7" s="2">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
         <v>21</v>
       </c>
@@ -954,10 +940,10 @@
         <v>3</v>
       </c>
       <c r="I7" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -977,7 +963,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G8" s="2">
         <v>27</v>
@@ -989,7 +975,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1009,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="2">
         <v>28</v>
@@ -1021,7 +1007,7 @@
         <v>11</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1038,10 +1024,10 @@
         <v>36451</v>
       </c>
       <c r="E10" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10" s="2">
         <v>23</v>
@@ -1053,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1073,7 +1059,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1085,7 +1071,7 @@
         <v>29</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1105,7 +1091,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G12" s="2">
         <v>40</v>
@@ -1117,7 +1103,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1134,13 +1120,13 @@
         <v>12401</v>
       </c>
       <c r="E13" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G13" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" s="2">
         <v>33</v>
@@ -1149,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1166,22 +1152,22 @@
         <v>33949</v>
       </c>
       <c r="E14" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G14" s="2">
         <v>31</v>
       </c>
       <c r="H14" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1213,7 +1199,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1230,10 +1216,10 @@
         <v>34596</v>
       </c>
       <c r="E16" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -1242,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1262,10 +1248,10 @@
         <v>33365</v>
       </c>
       <c r="E17" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2">
         <v>11</v>
@@ -1274,10 +1260,10 @@
         <v>37</v>
       </c>
       <c r="I17" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1294,10 +1280,10 @@
         <v>16174</v>
       </c>
       <c r="E18" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G18" s="2">
         <v>10</v>
@@ -1306,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="I18" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1326,22 +1312,22 @@
         <v>31856</v>
       </c>
       <c r="E19" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G19" s="2">
         <v>33</v>
       </c>
       <c r="H19" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I19" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1358,10 +1344,10 @@
         <v>33527</v>
       </c>
       <c r="E20" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G20" s="2">
         <v>19</v>
@@ -1370,10 +1356,10 @@
         <v>22</v>
       </c>
       <c r="I20" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1390,10 +1376,10 @@
         <v>31355</v>
       </c>
       <c r="E21" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G21" s="2">
         <v>28</v>
@@ -1402,10 +1388,10 @@
         <v>16</v>
       </c>
       <c r="I21" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1422,10 +1408,10 @@
         <v>34890</v>
       </c>
       <c r="E22" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G22" s="2">
         <v>23</v>
@@ -1434,10 +1420,10 @@
         <v>12</v>
       </c>
       <c r="I22" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1454,10 +1440,10 @@
         <v>31327</v>
       </c>
       <c r="E23" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G23" s="2">
         <v>27</v>
@@ -1469,7 +1455,7 @@
         <v>9</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1489,7 +1475,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G24" s="2">
         <v>6</v>
@@ -1501,7 +1487,7 @@
         <v>14</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1518,22 +1504,22 @@
         <v>37857</v>
       </c>
       <c r="E25" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
       </c>
       <c r="H25" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I25" s="2">
         <v>21</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1547,13 +1533,13 @@
         <v>61</v>
       </c>
       <c r="D26" s="2">
-        <v>38062</v>
+        <v>38082</v>
       </c>
       <c r="E26" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G26" s="2">
         <v>17</v>
@@ -1562,10 +1548,10 @@
         <v>10</v>
       </c>
       <c r="I26" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1582,10 +1568,10 @@
         <v>8241</v>
       </c>
       <c r="E27" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G27" s="2">
         <v>24</v>
@@ -1594,10 +1580,10 @@
         <v>3</v>
       </c>
       <c r="I27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1629,7 +1615,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1646,11 +1632,9 @@
         <v>24874</v>
       </c>
       <c r="E29" s="2">
-        <v>8</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2">
         <v>1</v>
       </c>
@@ -1661,7 +1645,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1678,10 +1662,10 @@
         <v>5474</v>
       </c>
       <c r="E30" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
@@ -1693,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1710,10 +1694,10 @@
         <v>31651</v>
       </c>
       <c r="E31" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
@@ -1722,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1742,11 +1726,9 @@
         <v>31160</v>
       </c>
       <c r="E32" s="2">
-        <v>12</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="2">
         <v>33</v>
       </c>
@@ -1757,7 +1739,7 @@
         <v>7</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/output/c6/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6/c6aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
   <si>
     <t>player</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>#GJCYYV0P</t>
+  </si>
+  <si>
+    <t>Gold III</t>
   </si>
   <si>
     <t>Silver III</t>
@@ -715,7 +718,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -764,7 +767,7 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -776,11 +779,13 @@
         <v>35077</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G2" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
@@ -789,7 +794,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -838,11 +843,13 @@
         <v>35077</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G4" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
@@ -851,7 +858,7 @@
         <v>27</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -871,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G5" s="2">
         <v>40</v>
@@ -883,7 +890,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -897,12 +904,14 @@
         <v>41</v>
       </c>
       <c r="D6" s="2">
-        <v>35728</v>
+        <v>35722</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G6" s="2">
         <v>29</v>
       </c>
@@ -913,7 +922,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -943,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -963,7 +972,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2">
         <v>27</v>
@@ -975,7 +984,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -995,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G9" s="2">
         <v>28</v>
@@ -1007,7 +1016,7 @@
         <v>11</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1027,7 +1036,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" s="2">
         <v>23</v>
@@ -1039,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1059,7 +1068,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1071,7 +1080,7 @@
         <v>29</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1091,7 +1100,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G12" s="2">
         <v>40</v>
@@ -1103,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1123,7 +1132,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G13" s="2">
         <v>6</v>
@@ -1135,7 +1144,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1155,7 +1164,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G14" s="2">
         <v>31</v>
@@ -1167,7 +1176,7 @@
         <v>16</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1187,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G15" s="2">
         <v>40</v>
@@ -1199,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1213,13 +1222,13 @@
         <v>51</v>
       </c>
       <c r="D16" s="2">
-        <v>34596</v>
+        <v>34615</v>
       </c>
       <c r="E16" s="2">
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -1231,7 +1240,7 @@
         <v>62</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1245,13 +1254,13 @@
         <v>52</v>
       </c>
       <c r="D17" s="2">
-        <v>33365</v>
+        <v>33572</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G17" s="2">
         <v>11</v>
@@ -1263,7 +1272,7 @@
         <v>8</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1283,7 +1292,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G18" s="2">
         <v>10</v>
@@ -1295,7 +1304,7 @@
         <v>11</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1309,13 +1318,13 @@
         <v>54</v>
       </c>
       <c r="D19" s="2">
-        <v>31856</v>
+        <v>32002</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" s="2">
         <v>33</v>
@@ -1327,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1347,7 +1356,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G20" s="2">
         <v>19</v>
@@ -1359,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1379,7 +1388,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G21" s="2">
         <v>28</v>
@@ -1391,7 +1400,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1411,7 +1420,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G22" s="2">
         <v>23</v>
@@ -1423,7 +1432,7 @@
         <v>26</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1437,25 +1446,25 @@
         <v>58</v>
       </c>
       <c r="D23" s="2">
-        <v>31327</v>
+        <v>31476</v>
       </c>
       <c r="E23" s="2">
         <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G23" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H23" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I23" s="2">
         <v>9</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1475,7 +1484,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G24" s="2">
         <v>6</v>
@@ -1487,7 +1496,7 @@
         <v>14</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1507,7 +1516,7 @@
         <v>8</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -1519,7 +1528,7 @@
         <v>21</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1533,13 +1542,13 @@
         <v>61</v>
       </c>
       <c r="D26" s="2">
-        <v>38082</v>
+        <v>38084</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G26" s="2">
         <v>17</v>
@@ -1551,7 +1560,7 @@
         <v>29</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1571,7 +1580,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G27" s="2">
         <v>24</v>
@@ -1583,7 +1592,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1603,7 +1612,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G28" s="2">
         <v>5</v>
@@ -1615,7 +1624,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1645,7 +1654,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1665,7 +1674,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G30" s="2">
         <v>0</v>
@@ -1677,7 +1686,7 @@
         <v>5</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1697,7 +1706,7 @@
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
@@ -1709,7 +1718,7 @@
         <v>62</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1726,11 +1735,13 @@
         <v>31160</v>
       </c>
       <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G32" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H32" s="2">
         <v>20</v>
@@ -1739,7 +1750,7 @@
         <v>7</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/output/c6/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6/c6aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="112">
   <si>
     <t>player</t>
   </si>
@@ -79,51 +79,54 @@
     <t>_mym_</t>
   </si>
   <si>
+    <t>nik haikal</t>
+  </si>
+  <si>
+    <t>axnsan</t>
+  </si>
+  <si>
+    <t>lolzorsish</t>
+  </si>
+  <si>
+    <t>xardas</t>
+  </si>
+  <si>
+    <t>LA | FLASH</t>
+  </si>
+  <si>
+    <t>Saurav</t>
+  </si>
+  <si>
+    <t>Snoopy&gt;.&lt;|をゆひせぬ</t>
+  </si>
+  <si>
+    <t>Blaze</t>
+  </si>
+  <si>
+    <t>DOOM</t>
+  </si>
+  <si>
+    <t>eric</t>
+  </si>
+  <si>
+    <t>Tribe | LHC 2</t>
+  </si>
+  <si>
+    <t>joshua</t>
+  </si>
+  <si>
+    <t>☬ℝ𝔸𝕋𝕋𝕃𝔼ℝ☬</t>
+  </si>
+  <si>
     <t>IX|LIT</t>
   </si>
   <si>
-    <t>Omz</t>
-  </si>
-  <si>
-    <t>Snoopy&gt;.&lt;|をゆひせぬ</t>
-  </si>
-  <si>
-    <t>H¥DRA|HANZLA ¢</t>
-  </si>
-  <si>
-    <t>Ninja❦</t>
-  </si>
-  <si>
-    <t>Saurav</t>
-  </si>
-  <si>
-    <t>Blaze</t>
-  </si>
-  <si>
-    <t>DOOM</t>
-  </si>
-  <si>
-    <t>eric</t>
-  </si>
-  <si>
-    <t>Tribe | LHC 2</t>
-  </si>
-  <si>
-    <t>joshua</t>
-  </si>
-  <si>
-    <t>你牛什么牛</t>
-  </si>
-  <si>
     <t>Mini Breeze</t>
   </si>
   <si>
     <t>Mini|Benn🎯</t>
   </si>
   <si>
-    <t>sasameseed</t>
-  </si>
-  <si>
     <t>RICOFTW</t>
   </si>
   <si>
@@ -166,51 +169,54 @@
     <t>#82808UG9G</t>
   </si>
   <si>
+    <t>#P00C0RR8</t>
+  </si>
+  <si>
+    <t>#2VY2PC0PL</t>
+  </si>
+  <si>
+    <t>#289GU8LR8</t>
+  </si>
+  <si>
+    <t>#2P88VGRL0</t>
+  </si>
+  <si>
+    <t>#2YCQJ00Y</t>
+  </si>
+  <si>
+    <t>#U2Q9L2QU</t>
+  </si>
+  <si>
+    <t>#C9RCCU8J</t>
+  </si>
+  <si>
+    <t>#C0R8YQC</t>
+  </si>
+  <si>
+    <t>#CPJC0QUV</t>
+  </si>
+  <si>
+    <t>#80VR8V9</t>
+  </si>
+  <si>
+    <t>#V8VRPRYQ</t>
+  </si>
+  <si>
+    <t>#C29RQJLU</t>
+  </si>
+  <si>
+    <t>#89GV9UG9Q</t>
+  </si>
+  <si>
     <t>#8V09Y2Y8</t>
   </si>
   <si>
-    <t>#8L00JQGP9</t>
-  </si>
-  <si>
-    <t>#C9RCCU8J</t>
-  </si>
-  <si>
-    <t>#8YGQJCUVR</t>
-  </si>
-  <si>
-    <t>#9JVYLJY</t>
-  </si>
-  <si>
-    <t>#U2Q9L2QU</t>
-  </si>
-  <si>
-    <t>#C0R8YQC</t>
-  </si>
-  <si>
-    <t>#CPJC0QUV</t>
-  </si>
-  <si>
-    <t>#80VR8V9</t>
-  </si>
-  <si>
-    <t>#V8VRPRYQ</t>
-  </si>
-  <si>
-    <t>#C29RQJLU</t>
-  </si>
-  <si>
-    <t>#89GV9UG9Q</t>
-  </si>
-  <si>
     <t>#2CVYPV0YP</t>
   </si>
   <si>
     <t>#9RVV02QQ</t>
   </si>
   <si>
-    <t>#8999QQCPC</t>
-  </si>
-  <si>
     <t>#9ULG0RR8V</t>
   </si>
   <si>
@@ -220,49 +226,52 @@
     <t>#GJCYYV0P</t>
   </si>
   <si>
+    <t>Diamond I</t>
+  </si>
+  <si>
+    <t>Silver III</t>
+  </si>
+  <si>
+    <t>Mythic I</t>
+  </si>
+  <si>
+    <t>Diamond III</t>
+  </si>
+  <si>
+    <t>Diamond II</t>
+  </si>
+  <si>
+    <t>Gold II</t>
+  </si>
+  <si>
+    <t>Gold I</t>
+  </si>
+  <si>
     <t>Gold III</t>
   </si>
   <si>
-    <t>Silver III</t>
-  </si>
-  <si>
-    <t>Diamond III</t>
-  </si>
-  <si>
-    <t>Diamond II</t>
-  </si>
-  <si>
     <t>Mythic II</t>
   </si>
   <si>
-    <t>Gold II</t>
-  </si>
-  <si>
-    <t>Diamond I</t>
-  </si>
-  <si>
-    <t>Gold I</t>
-  </si>
-  <si>
     <t>Legend I</t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BELLE, BIBI, BO, BROCK, BYRON, CARL, COLT, CROW, DARRYL, EMZ, EVE, ... </t>
-  </si>
-  <si>
-    <t>BARLEY, BO, CROW, DARRYL, EMZ, JESSIE, NANI, NITA, PENNY, SANDY, STU, TICK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMBER, ASH, BELLE, BONNIE, CARL, COLETTE, CROW, EVE, GALE, GENE, GRIFF, GROM, ... </t>
-  </si>
-  <si>
-    <t>DARRYL, EL PRIMO, GALE, LEON, SANDY, SPIKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BONNIE, BROCK, BUZZ, DARRYL, EMZ, GENE, GRIFF, LOLA, MAX, MEG, PAM, POCO, ... </t>
-  </si>
-  <si>
-    <t>ASH, BEA, BUSTER, CARL, CROW, FANG, MORTIS, SPIKE, STU, SURGE</t>
+    <t xml:space="preserve">BEA, BELLE, BIBI, BO, BROCK, BUSTER, BUZZ, BYRON, CARL, CHESTER, COLT, CROW, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARLEY, BO, CROW, DARRYL, EMZ, EVE, JESSIE, NANI, NITA, PENNY, POCO, SANDY, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BONNIE, BULL, BUSTER, CARL, CHESTER, COLETTE, CROW, EVE, ... </t>
+  </si>
+  <si>
+    <t>DARRYL, EL PRIMO, GALE, JESSIE, LEON, SANDY, SPIKE, SURGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, COLETTE, CROW, DARRYL, EMZ, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BROCK, BUSTER, CARL, CHESTER, COLETTE, CROW, FANG, MORTIS, SPIKE, ... </t>
   </si>
   <si>
     <t>8-BIT, ASH, BIBI, TICK</t>
@@ -271,70 +280,76 @@
     <t xml:space="preserve">AMBER, ASH, BARLEY, BO, BONNIE, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CROW, ... </t>
   </si>
   <si>
-    <t>EMZ, MORTIS, PIPER, POCO, SQUEAK</t>
+    <t>BEA, BO, EMZ, GUS, JACKY, MORTIS, PENNY, PIPER, POCO, SQUEAK</t>
   </si>
   <si>
     <t>BUZZ, PENNY</t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BO, BYRON, CARL, CROW, GENE, GRIFF, MAX, PAM, POCO, ROSA, RUFFS, ... </t>
-  </si>
-  <si>
-    <t>BIBI, MORTIS, RICO</t>
+    <t xml:space="preserve">BEA, BO, BUSTER, BYRON, CARL, CHESTER, CROW, GENE, GRIFF, MAX, PAM, POCO, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, CHESTER, COLT, CROW, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BELLE, BO, BONNIE, BROCK, BYRON, CHESTER, COLETTE, CROW, EDGAR, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO, BROCK, CARL, COLT, DARRYL, FRANK, GALE, GENE, LEON, NITA, PAM, POCO, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, CHESTER, COLETTE, CROW, DARRYL, ... </t>
+  </si>
+  <si>
+    <t>COLETTE, COLT, CROW, FANG, MAX, MORTIS, STU, SURGE, TARA</t>
+  </si>
+  <si>
+    <t>BEA, CARL, COLT, EMZ, GENE, JACKY, MAX, MORTIS, SURGE, TARA</t>
+  </si>
+  <si>
+    <t>8-BIT, BUSTER, CHESTER, DYNAMIKE, EDGAR, EMZ, GRAY, MEG, PENNY, POCO, STU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELLE, BUSTER, BYRON, CHESTER, CROW, GRIFF, GUS, JANET, OTIS, PIPER, POCO, SQUEAK, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BO, BONNIE, BUSTER, CARL, CHESTER, CROW, EMZ, EVE, GENE, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BELLE, EVE, GENE, GRIFF, LOLA, LOU, NANI, POCO, SPIKE, SPROUT, SURGE, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, BONNIE, BROCK, CARL, CROW, DARRYL, EL PRIMO, EMZ, EVE, FANG, GROM, GUS, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARLEY, BELLE, BIBI, BO, BYRON, COLT, CROW, DARRYL, EMZ, EVE, GRIFF, LOU, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BIBI, BO, BROCK, BUZZ, CARL, CHESTER, COLETTE, CROW, ... </t>
+  </si>
+  <si>
+    <t>BIBI, CHESTER, MORTIS, RICO, TARA</t>
+  </si>
+  <si>
+    <t>MORTIS, RICO</t>
+  </si>
+  <si>
+    <t>BO, DARRYL, LOLA, PAM, PENNY, RICO, SPIKE</t>
+  </si>
+  <si>
+    <t>BEA, COLT, GROM, JESSIE, PENNY, RICO, SHELLY</t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
   </si>
   <si>
-    <t>8-BIT, BUSTER, EDGAR, MEG, PENNY, POCO, STU</t>
-  </si>
-  <si>
-    <t>BO, BROCK, EMZ, EVE, MAX, POCO, RICO, SANDY, SPIKE, STU</t>
-  </si>
-  <si>
-    <t>COLT, MORTIS, STU</t>
-  </si>
-  <si>
-    <t>BEA, CARL, COLT, EMZ, GENE, JACKY, MAX, MORTIS, SURGE, TARA</t>
-  </si>
-  <si>
-    <t>BELLE, BYRON, CROW, GRIFF, GUS, JANET, PIPER, POCO, SQUEAK, STU, SURGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BELLE, BO, BONNIE, CARL, CROW, EMZ, EVE, GENE, GRIFF, GUS, JANET, ... </t>
-  </si>
-  <si>
-    <t>ASH, EVE, GRIFF, LOLA, LOU, NANI, POCO, SPIKE, TICK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BONNIE, BROCK, CARL, CROW, EMZ, FANG, GUS, JANET, LEON, OTIS, PENNY, POCO, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARLEY, BELLE, BIBI, BO, BYRON, COLT, CROW, DARRYL, EMZ, EVE, GRIFF, LOU, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BO, BROCK, CARL, COLETTE, CROW, DARRYL, EDGAR, EMZ, GALE, ... </t>
-  </si>
-  <si>
-    <t>MORTIS, RICO</t>
-  </si>
-  <si>
-    <t>BO, DARRYL, LOLA, PAM, PENNY, RICO</t>
-  </si>
-  <si>
-    <t>CROW, EVE, MORTIS, SPIKE</t>
-  </si>
-  <si>
-    <t>COLT, GROM, JESSIE, PENNY, RICO</t>
-  </si>
-  <si>
-    <t>ASH, BYRON, EMZ, EVE, GENE, GRIFF, SANDY</t>
+    <t>ASH, BYRON, CARL, EMZ, EVE, GENE, GRIFF, SANDY, SPIKE, SURGE</t>
   </si>
   <si>
     <t>C6 Brawler Levels</t>
   </si>
   <si>
-    <t>2022-11-25</t>
+    <t>2022-12-29</t>
   </si>
 </sst>
 </file>
@@ -705,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS32"/>
+  <dimension ref="A1:AS33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -718,7 +733,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -767,34 +782,34 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
-        <v>35077</v>
+        <v>37212</v>
       </c>
       <c r="E2" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -837,28 +852,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2">
-        <v>35077</v>
+        <v>37212</v>
       </c>
       <c r="E4" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4" s="2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -869,28 +884,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2">
-        <v>29764</v>
+        <v>30543</v>
       </c>
       <c r="E5" s="2">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I5" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -901,28 +916,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2">
-        <v>35722</v>
+        <v>37894</v>
       </c>
       <c r="E6" s="2">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="2">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2">
         <v>6</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="2">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2">
-        <v>8</v>
-      </c>
       <c r="I6" s="2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -933,15 +948,17 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2">
-        <v>23950</v>
+        <v>25032</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G7" s="2">
         <v>21</v>
       </c>
@@ -949,10 +966,10 @@
         <v>3</v>
       </c>
       <c r="I7" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -963,28 +980,28 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>33619</v>
+        <v>34951</v>
       </c>
       <c r="E8" s="2">
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G8" s="2">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H8" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I8" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -995,28 +1012,28 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2">
-        <v>35243</v>
+        <v>37251</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G9" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I9" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1027,28 +1044,28 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2">
-        <v>36451</v>
+        <v>36795</v>
       </c>
       <c r="E10" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G10" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H10" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I10" s="2">
         <v>4</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1059,16 +1076,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2">
-        <v>38267</v>
+        <v>40070</v>
       </c>
       <c r="E11" s="2">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1077,10 +1094,10 @@
         <v>32</v>
       </c>
       <c r="I11" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1091,28 +1108,28 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2">
-        <v>28224</v>
+        <v>30079</v>
       </c>
       <c r="E12" s="2">
         <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G12" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I12" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1123,28 +1140,28 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2">
-        <v>12401</v>
+        <v>12714</v>
       </c>
       <c r="E13" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G13" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H13" s="2">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I13" s="2">
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1155,28 +1172,28 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2">
-        <v>33949</v>
+        <v>35688</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I14" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1184,31 +1201,31 @@
         <v>21</v>
       </c>
       <c r="B15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2">
-        <v>31250</v>
+        <v>30070</v>
       </c>
       <c r="E15" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G15" s="2">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H15" s="2">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I15" s="2">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1219,28 +1236,28 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2">
-        <v>34615</v>
+        <v>33410</v>
       </c>
       <c r="E16" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I16" s="2">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1251,28 +1268,28 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2">
-        <v>33572</v>
+        <v>30291</v>
       </c>
       <c r="E17" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G17" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H17" s="2">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I17" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1280,31 +1297,31 @@
         <v>24</v>
       </c>
       <c r="B18" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2">
-        <v>16174</v>
+        <v>33767</v>
       </c>
       <c r="E18" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" s="2">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H18" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1315,28 +1332,28 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2">
-        <v>32002</v>
+        <v>32051</v>
       </c>
       <c r="E19" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G19" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H19" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I19" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1347,28 +1364,28 @@
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2">
-        <v>33527</v>
+        <v>34855</v>
       </c>
       <c r="E20" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G20" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H20" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I20" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1376,31 +1393,31 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2">
-        <v>31355</v>
+        <v>35134</v>
       </c>
       <c r="E21" s="2">
         <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G21" s="2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H21" s="2">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I21" s="2">
         <v>12</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1411,28 +1428,28 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2">
-        <v>34890</v>
+        <v>32136</v>
       </c>
       <c r="E22" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H22" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I22" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1443,28 +1460,28 @@
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2">
-        <v>31476</v>
+        <v>36353</v>
       </c>
       <c r="E23" s="2">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="2">
+        <v>20</v>
+      </c>
+      <c r="H23" s="2">
         <v>12</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="2">
-        <v>26</v>
-      </c>
-      <c r="H23" s="2">
-        <v>19</v>
-      </c>
       <c r="I23" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1472,31 +1489,31 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2">
-        <v>19847</v>
+        <v>33025</v>
       </c>
       <c r="E24" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G24" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H24" s="2">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I24" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1507,28 +1524,28 @@
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2">
-        <v>37857</v>
+        <v>20183</v>
       </c>
       <c r="E25" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="2">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="I25" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1539,28 +1556,28 @@
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2">
-        <v>38084</v>
+        <v>39987</v>
       </c>
       <c r="E26" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G26" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I26" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1568,31 +1585,31 @@
         <v>33</v>
       </c>
       <c r="B27" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D27" s="2">
-        <v>8241</v>
+        <v>40293</v>
       </c>
       <c r="E27" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G27" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H27" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I27" s="2">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1603,28 +1620,28 @@
         <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="2">
-        <v>6862</v>
+        <v>32994</v>
       </c>
       <c r="E28" s="2">
         <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G28" s="2">
+        <v>35</v>
+      </c>
+      <c r="H28" s="2">
+        <v>14</v>
+      </c>
+      <c r="I28" s="2">
         <v>5</v>
       </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>6</v>
-      </c>
       <c r="J28" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1635,26 +1652,28 @@
         <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" s="2">
-        <v>24874</v>
+        <v>9099</v>
       </c>
       <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G29" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H29" s="2">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="I29" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1662,31 +1681,31 @@
         <v>36</v>
       </c>
       <c r="B30" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30" s="2">
-        <v>5474</v>
+        <v>7652</v>
       </c>
       <c r="E30" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
       </c>
       <c r="I30" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1697,16 +1716,16 @@
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D31" s="2">
-        <v>31651</v>
+        <v>5554</v>
       </c>
       <c r="E31" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
@@ -1715,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1729,28 +1748,60 @@
         <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D32" s="2">
-        <v>31160</v>
+        <v>32569</v>
       </c>
       <c r="E32" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G32" s="2">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="2">
+        <v>31761</v>
+      </c>
+      <c r="E33" s="2">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="2">
+        <v>36</v>
+      </c>
+      <c r="H33" s="2">
+        <v>17</v>
+      </c>
+      <c r="I33" s="2">
+        <v>11</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1758,7 +1809,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H32">
+  <conditionalFormatting sqref="A2:H33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c6/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6/c6aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="109">
   <si>
     <t>player</t>
   </si>
@@ -94,18 +94,18 @@
     <t>LA | FLASH</t>
   </si>
   <si>
-    <t>Saurav</t>
-  </si>
-  <si>
     <t>Snoopy&gt;.&lt;|をゆひせぬ</t>
   </si>
   <si>
-    <t>Blaze</t>
+    <t>Terrific🎃🎃🎃</t>
   </si>
   <si>
     <t>DOOM</t>
   </si>
   <si>
+    <t>The Legend</t>
+  </si>
+  <si>
     <t>eric</t>
   </si>
   <si>
@@ -118,12 +118,12 @@
     <t>☬ℝ𝔸𝕋𝕋𝕃𝔼ℝ☬</t>
   </si>
   <si>
+    <t>DØPExNÄVED</t>
+  </si>
+  <si>
     <t>IX|LIT</t>
   </si>
   <si>
-    <t>Mini Breeze</t>
-  </si>
-  <si>
     <t>Mini|Benn🎯</t>
   </si>
   <si>
@@ -184,18 +184,18 @@
     <t>#2YCQJ00Y</t>
   </si>
   <si>
-    <t>#U2Q9L2QU</t>
-  </si>
-  <si>
     <t>#C9RCCU8J</t>
   </si>
   <si>
-    <t>#C0R8YQC</t>
+    <t>#LQL0U9VP2</t>
   </si>
   <si>
     <t>#CPJC0QUV</t>
   </si>
   <si>
+    <t>#9PRLUPQJL</t>
+  </si>
+  <si>
     <t>#80VR8V9</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>#89GV9UG9Q</t>
   </si>
   <si>
+    <t>#8V9QLR22Y</t>
+  </si>
+  <si>
     <t>#8V09Y2Y8</t>
   </si>
   <si>
-    <t>#2CVYPV0YP</t>
-  </si>
-  <si>
     <t>#9RVV02QQ</t>
   </si>
   <si>
@@ -226,37 +226,28 @@
     <t>#GJCYYV0P</t>
   </si>
   <si>
+    <t>Gold III</t>
+  </si>
+  <si>
+    <t>Silver III</t>
+  </si>
+  <si>
+    <t>Diamond II</t>
+  </si>
+  <si>
     <t>Diamond I</t>
   </si>
   <si>
-    <t>Silver III</t>
-  </si>
-  <si>
-    <t>Mythic I</t>
-  </si>
-  <si>
     <t>Diamond III</t>
   </si>
   <si>
-    <t>Diamond II</t>
+    <t>Gold I</t>
   </si>
   <si>
     <t>Gold II</t>
   </si>
   <si>
-    <t>Gold I</t>
-  </si>
-  <si>
-    <t>Gold III</t>
-  </si>
-  <si>
-    <t>Mythic II</t>
-  </si>
-  <si>
-    <t>Legend I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA, BELLE, BIBI, BO, BROCK, BUSTER, BUZZ, BYRON, CARL, CHESTER, COLT, CROW, ... </t>
+    <t xml:space="preserve">AMBER, BEA, BELLE, BIBI, BO, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CHESTER, ... </t>
   </si>
   <si>
     <t xml:space="preserve">BARLEY, BO, CROW, DARRYL, EMZ, EVE, JESSIE, NANI, NITA, PENNY, POCO, SANDY, ... </t>
@@ -271,7 +262,7 @@
     <t xml:space="preserve">ASH, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, COLETTE, CROW, DARRYL, EMZ, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BROCK, BUSTER, CARL, CHESTER, COLETTE, CROW, FANG, MORTIS, SPIKE, ... </t>
+    <t xml:space="preserve">ASH, BEA, BELLE, BROCK, BUSTER, CARL, CHESTER, COLETTE, CROW, FANG, MORTIS, POCO, ... </t>
   </si>
   <si>
     <t>8-BIT, ASH, BIBI, TICK</t>
@@ -295,27 +286,27 @@
     <t xml:space="preserve">8-BIT, AMBER, ASH, BELLE, BO, BONNIE, BROCK, BYRON, CHESTER, COLETTE, CROW, EDGAR, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BO, BROCK, CARL, COLT, DARRYL, FRANK, GALE, GENE, LEON, NITA, PAM, POCO, ... </t>
+    <t xml:space="preserve">BO, BONNIE, BROCK, CARL, COLT, CROW, DARRYL, EMZ, FRANK, GALE, GENE, LEON, ... </t>
   </si>
   <si>
     <t xml:space="preserve">BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, CHESTER, COLETTE, CROW, DARRYL, ... </t>
   </si>
   <si>
-    <t>COLETTE, COLT, CROW, FANG, MAX, MORTIS, STU, SURGE, TARA</t>
-  </si>
-  <si>
-    <t>BEA, CARL, COLT, EMZ, GENE, JACKY, MAX, MORTIS, SURGE, TARA</t>
+    <t>BO, COLETTE, COLT, CROW, FANG, MAX, MORTIS, STU, SURGE, TARA</t>
   </si>
   <si>
     <t>8-BIT, BUSTER, CHESTER, DYNAMIKE, EDGAR, EMZ, GRAY, MEG, PENNY, POCO, STU</t>
   </si>
   <si>
-    <t xml:space="preserve">BELLE, BUSTER, BYRON, CHESTER, CROW, GRIFF, GUS, JANET, OTIS, PIPER, POCO, SQUEAK, ... </t>
+    <t>CARL, COLT, RICO</t>
   </si>
   <si>
     <t xml:space="preserve">ASH, BEA, BELLE, BO, BONNIE, BUSTER, CARL, CHESTER, CROW, EMZ, EVE, GENE, ... </t>
   </si>
   <si>
+    <t>BULL, MORTIS</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASH, BELLE, EVE, GENE, GRIFF, LOLA, LOU, NANI, POCO, SPIKE, SPROUT, SURGE, ... </t>
   </si>
   <si>
@@ -328,12 +319,12 @@
     <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BIBI, BO, BROCK, BUZZ, CARL, CHESTER, COLETTE, CROW, ... </t>
   </si>
   <si>
+    <t>COLT</t>
+  </si>
+  <si>
     <t>BIBI, CHESTER, MORTIS, RICO, TARA</t>
   </si>
   <si>
-    <t>MORTIS, RICO</t>
-  </si>
-  <si>
     <t>BO, DARRYL, LOLA, PAM, PENNY, RICO, SPIKE</t>
   </si>
   <si>
@@ -343,13 +334,13 @@
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
   </si>
   <si>
-    <t>ASH, BYRON, CARL, EMZ, EVE, GENE, GRIFF, SANDY, SPIKE, SURGE</t>
+    <t xml:space="preserve">ASH, BYRON, CARL, CROW, EMZ, EVE, GENE, GRIFF, PAM, SANDY, SPIKE, STU, ... </t>
   </si>
   <si>
     <t>C6 Brawler Levels</t>
   </si>
   <si>
-    <t>2022-12-29</t>
+    <t>2023-01-04</t>
   </si>
 </sst>
 </file>
@@ -733,7 +724,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -782,7 +773,7 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -791,25 +782,25 @@
         <v>40</v>
       </c>
       <c r="D2" s="2">
-        <v>37212</v>
+        <v>37307</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2">
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -855,25 +846,25 @@
         <v>40</v>
       </c>
       <c r="D4" s="2">
-        <v>37212</v>
+        <v>37307</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G4" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2">
         <v>4</v>
       </c>
       <c r="I4" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -887,7 +878,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="2">
-        <v>30543</v>
+        <v>30459</v>
       </c>
       <c r="E5" s="2">
         <v>6</v>
@@ -905,7 +896,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -919,25 +910,25 @@
         <v>42</v>
       </c>
       <c r="D6" s="2">
-        <v>37894</v>
+        <v>37930</v>
       </c>
       <c r="E6" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G6" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2">
         <v>6</v>
       </c>
       <c r="I6" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -951,25 +942,25 @@
         <v>43</v>
       </c>
       <c r="D7" s="2">
-        <v>25032</v>
+        <v>24915</v>
       </c>
       <c r="E7" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G7" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="2">
         <v>8</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -983,14 +974,12 @@
         <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>34951</v>
+        <v>34985</v>
       </c>
       <c r="E8" s="2">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
         <v>22</v>
       </c>
@@ -1001,7 +990,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1015,25 +1004,25 @@
         <v>45</v>
       </c>
       <c r="D9" s="2">
-        <v>37251</v>
+        <v>37122</v>
       </c>
       <c r="E9" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I9" s="2">
         <v>15</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1047,13 +1036,13 @@
         <v>46</v>
       </c>
       <c r="D10" s="2">
-        <v>36795</v>
+        <v>36510</v>
       </c>
       <c r="E10" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" s="2">
         <v>18</v>
@@ -1065,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1079,13 +1068,13 @@
         <v>47</v>
       </c>
       <c r="D11" s="2">
-        <v>40070</v>
+        <v>39691</v>
       </c>
       <c r="E11" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1094,10 +1083,10 @@
         <v>32</v>
       </c>
       <c r="I11" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1111,10 +1100,10 @@
         <v>48</v>
       </c>
       <c r="D12" s="2">
-        <v>30079</v>
+        <v>29705</v>
       </c>
       <c r="E12" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>75</v>
@@ -1129,7 +1118,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1143,13 +1132,13 @@
         <v>49</v>
       </c>
       <c r="D13" s="2">
-        <v>12714</v>
+        <v>12763</v>
       </c>
       <c r="E13" s="2">
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="2">
         <v>3</v>
@@ -1161,7 +1150,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1175,13 +1164,13 @@
         <v>50</v>
       </c>
       <c r="D14" s="2">
-        <v>35688</v>
+        <v>35489</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G14" s="2">
         <v>30</v>
@@ -1193,7 +1182,7 @@
         <v>18</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1207,13 +1196,13 @@
         <v>51</v>
       </c>
       <c r="D15" s="2">
-        <v>30070</v>
+        <v>29611</v>
       </c>
       <c r="E15" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2">
         <v>2</v>
@@ -1222,10 +1211,10 @@
         <v>27</v>
       </c>
       <c r="I15" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1239,25 +1228,25 @@
         <v>52</v>
       </c>
       <c r="D16" s="2">
-        <v>33410</v>
+        <v>33365</v>
       </c>
       <c r="E16" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1271,25 +1260,25 @@
         <v>53</v>
       </c>
       <c r="D17" s="2">
-        <v>30291</v>
+        <v>30422</v>
       </c>
       <c r="E17" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G17" s="2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H17" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I17" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1303,10 +1292,10 @@
         <v>54</v>
       </c>
       <c r="D18" s="2">
-        <v>33767</v>
+        <v>33469</v>
       </c>
       <c r="E18" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>72</v>
@@ -1318,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1335,10 +1324,10 @@
         <v>55</v>
       </c>
       <c r="D19" s="2">
-        <v>32051</v>
+        <v>31965</v>
       </c>
       <c r="E19" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>72</v>
@@ -1347,13 +1336,13 @@
         <v>37</v>
       </c>
       <c r="H19" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I19" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1367,25 +1356,25 @@
         <v>56</v>
       </c>
       <c r="D20" s="2">
-        <v>34855</v>
+        <v>34939</v>
       </c>
       <c r="E20" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G20" s="2">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="H20" s="2">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I20" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1399,25 +1388,25 @@
         <v>57</v>
       </c>
       <c r="D21" s="2">
-        <v>35134</v>
+        <v>5240</v>
       </c>
       <c r="E21" s="2">
         <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G21" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1431,25 +1420,25 @@
         <v>58</v>
       </c>
       <c r="D22" s="2">
-        <v>32136</v>
+        <v>36128</v>
       </c>
       <c r="E22" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G22" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H22" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I22" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1463,25 +1452,23 @@
         <v>59</v>
       </c>
       <c r="D23" s="2">
-        <v>36353</v>
+        <v>5244</v>
       </c>
       <c r="E23" s="2">
-        <v>11</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1495,10 +1482,10 @@
         <v>60</v>
       </c>
       <c r="D24" s="2">
-        <v>33025</v>
+        <v>32684</v>
       </c>
       <c r="E24" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>72</v>
@@ -1510,10 +1497,10 @@
         <v>18</v>
       </c>
       <c r="I24" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1527,25 +1514,23 @@
         <v>61</v>
       </c>
       <c r="D25" s="2">
-        <v>20183</v>
+        <v>20349</v>
       </c>
       <c r="E25" s="2">
-        <v>16</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="2">
         <v>2</v>
       </c>
       <c r="H25" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1559,14 +1544,12 @@
         <v>62</v>
       </c>
       <c r="D26" s="2">
-        <v>39987</v>
+        <v>39935</v>
       </c>
       <c r="E26" s="2">
-        <v>8</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2">
         <v>0</v>
       </c>
@@ -1577,7 +1560,7 @@
         <v>23</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1591,25 +1574,23 @@
         <v>63</v>
       </c>
       <c r="D27" s="2">
-        <v>40293</v>
+        <v>40012</v>
       </c>
       <c r="E27" s="2">
-        <v>10</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H27" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I27" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1623,25 +1604,25 @@
         <v>64</v>
       </c>
       <c r="D28" s="2">
-        <v>32994</v>
+        <v>30178</v>
       </c>
       <c r="E28" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G28" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I28" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1655,25 +1636,25 @@
         <v>65</v>
       </c>
       <c r="D29" s="2">
-        <v>9099</v>
+        <v>32608</v>
       </c>
       <c r="E29" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G29" s="2">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H29" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I29" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1687,13 +1668,13 @@
         <v>66</v>
       </c>
       <c r="D30" s="2">
-        <v>7652</v>
+        <v>7758</v>
       </c>
       <c r="E30" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G30" s="2">
         <v>5</v>
@@ -1705,7 +1686,7 @@
         <v>7</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1719,14 +1700,12 @@
         <v>67</v>
       </c>
       <c r="D31" s="2">
-        <v>5554</v>
+        <v>5458</v>
       </c>
       <c r="E31" s="2">
-        <v>16</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="2">
         <v>0</v>
       </c>
@@ -1737,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1751,14 +1730,12 @@
         <v>68</v>
       </c>
       <c r="D32" s="2">
-        <v>32569</v>
+        <v>31989</v>
       </c>
       <c r="E32" s="2">
-        <v>13</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="2">
         <v>0</v>
       </c>
@@ -1766,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1783,25 +1760,25 @@
         <v>69</v>
       </c>
       <c r="D33" s="2">
-        <v>31761</v>
+        <v>31223</v>
       </c>
       <c r="E33" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G33" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I33" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/output/c6/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6/c6aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="107">
   <si>
     <t>player</t>
   </si>
@@ -118,24 +118,21 @@
     <t>☬ℝ𝔸𝕋𝕋𝕃𝔼ℝ☬</t>
   </si>
   <si>
-    <t>DØPExNÄVED</t>
-  </si>
-  <si>
     <t>IX|LIT</t>
   </si>
   <si>
     <t>Mini|Benn🎯</t>
   </si>
   <si>
-    <t>RICOFTW</t>
-  </si>
-  <si>
     <t>Synderella</t>
   </si>
   <si>
     <t>shauntws</t>
   </si>
   <si>
+    <t>23x41</t>
+  </si>
+  <si>
     <t>#JVQP8LLY</t>
   </si>
   <si>
@@ -208,52 +205,52 @@
     <t>#89GV9UG9Q</t>
   </si>
   <si>
-    <t>#8V9QLR22Y</t>
-  </si>
-  <si>
     <t>#8V09Y2Y8</t>
   </si>
   <si>
     <t>#9RVV02QQ</t>
   </si>
   <si>
-    <t>#9ULG0RR8V</t>
-  </si>
-  <si>
     <t>#R80JC998</t>
   </si>
   <si>
     <t>#GJCYYV0P</t>
   </si>
   <si>
+    <t>#929U0Y88R</t>
+  </si>
+  <si>
+    <t>Diamond I</t>
+  </si>
+  <si>
+    <t>Silver III</t>
+  </si>
+  <si>
+    <t>Diamond III</t>
+  </si>
+  <si>
+    <t>Diamond II</t>
+  </si>
+  <si>
+    <t>Gold I</t>
+  </si>
+  <si>
+    <t>Gold II</t>
+  </si>
+  <si>
+    <t>Mythic III</t>
+  </si>
+  <si>
     <t>Gold III</t>
   </si>
   <si>
-    <t>Silver III</t>
-  </si>
-  <si>
-    <t>Diamond II</t>
-  </si>
-  <si>
-    <t>Diamond I</t>
-  </si>
-  <si>
-    <t>Diamond III</t>
-  </si>
-  <si>
-    <t>Gold I</t>
-  </si>
-  <si>
-    <t>Gold II</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMBER, BEA, BELLE, BIBI, BO, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CHESTER, ... </t>
   </si>
   <si>
     <t xml:space="preserve">BARLEY, BO, CROW, DARRYL, EMZ, EVE, JESSIE, NANI, NITA, PENNY, POCO, SANDY, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BONNIE, BULL, BUSTER, CARL, CHESTER, COLETTE, CROW, EVE, ... </t>
+    <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BONNIE, BROCK, BULL, BUSTER, BUZZ, CARL, CHESTER, COLETTE, ... </t>
   </si>
   <si>
     <t>DARRYL, EL PRIMO, GALE, JESSIE, LEON, SANDY, SPIKE, SURGE</t>
@@ -268,22 +265,22 @@
     <t>8-BIT, ASH, BIBI, TICK</t>
   </si>
   <si>
-    <t xml:space="preserve">AMBER, ASH, BARLEY, BO, BONNIE, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CROW, ... </t>
-  </si>
-  <si>
-    <t>BEA, BO, EMZ, GUS, JACKY, MORTIS, PENNY, PIPER, POCO, SQUEAK</t>
-  </si>
-  <si>
-    <t>BUZZ, PENNY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA, BO, BUSTER, BYRON, CARL, CHESTER, CROW, GENE, GRIFF, MAX, PAM, POCO, ... </t>
+    <t xml:space="preserve">AMBER, ASH, BARLEY, BO, BONNIE, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CHESTER, ... </t>
+  </si>
+  <si>
+    <t>BEA, BO, EMZ, GUS, JACKY, MORTIS, PENNY, PIPER, POCO, SPIKE, SQUEAK</t>
+  </si>
+  <si>
+    <t>BROCK, BUZZ, PENNY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BO, BUSTER, BYRON, CARL, CHESTER, CROW, GENE, GRIFF, GROM, MAX, PAM, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, CHESTER, COLT, CROW, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BELLE, BO, BONNIE, BROCK, BYRON, CHESTER, COLETTE, CROW, EDGAR, ... </t>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BELLE, BO, BONNIE, BROCK, BUSTER, BYRON, CHESTER, COLETTE, CROW, ... </t>
   </si>
   <si>
     <t xml:space="preserve">BO, BONNIE, BROCK, CARL, COLT, CROW, DARRYL, EMZ, FRANK, GALE, GENE, LEON, ... </t>
@@ -319,28 +316,25 @@
     <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BIBI, BO, BROCK, BUZZ, CARL, CHESTER, COLETTE, CROW, ... </t>
   </si>
   <si>
-    <t>COLT</t>
-  </si>
-  <si>
     <t>BIBI, CHESTER, MORTIS, RICO, TARA</t>
   </si>
   <si>
     <t>BO, DARRYL, LOLA, PAM, PENNY, RICO, SPIKE</t>
   </si>
   <si>
-    <t>BEA, COLT, GROM, JESSIE, PENNY, RICO, SHELLY</t>
-  </si>
-  <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
   </si>
   <si>
     <t xml:space="preserve">ASH, BYRON, CARL, CROW, EMZ, EVE, GENE, GRIFF, PAM, SANDY, SPIKE, STU, ... </t>
   </si>
   <si>
+    <t>BUZZ, MAX, RICO</t>
+  </si>
+  <si>
     <t>C6 Brawler Levels</t>
   </si>
   <si>
-    <t>2023-01-04</t>
+    <t>2023-01-11</t>
   </si>
 </sst>
 </file>
@@ -711,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS33"/>
+  <dimension ref="A1:AS32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,7 +718,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -773,34 +767,34 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2">
-        <v>37307</v>
+        <v>37413</v>
       </c>
       <c r="E2" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -843,28 +837,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2">
-        <v>37307</v>
+        <v>37413</v>
       </c>
       <c r="E4" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -875,16 +869,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2">
-        <v>30459</v>
+        <v>30568</v>
       </c>
       <c r="E5" s="2">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G5" s="2">
         <v>38</v>
@@ -896,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -907,28 +901,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2">
-        <v>37930</v>
+        <v>38043</v>
       </c>
       <c r="E6" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I6" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -939,19 +933,17 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2">
-        <v>24915</v>
+        <v>24928</v>
       </c>
       <c r="E7" s="2">
-        <v>9</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2">
         <v>2</v>
@@ -960,7 +952,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -971,15 +963,17 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2">
-        <v>34985</v>
+        <v>35022</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G8" s="2">
         <v>22</v>
       </c>
@@ -987,10 +981,10 @@
         <v>6</v>
       </c>
       <c r="I8" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1001,28 +995,28 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2">
-        <v>37122</v>
+        <v>37349</v>
       </c>
       <c r="E9" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G9" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1033,16 +1027,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2">
-        <v>36510</v>
+        <v>36575</v>
       </c>
       <c r="E10" s="2">
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G10" s="2">
         <v>18</v>
@@ -1054,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1065,28 +1059,26 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2">
-        <v>39691</v>
+        <v>40024</v>
       </c>
       <c r="E11" s="2">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1097,28 +1089,28 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2">
-        <v>29705</v>
+        <v>29747</v>
       </c>
       <c r="E12" s="2">
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G12" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="2">
         <v>6</v>
       </c>
       <c r="I12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1129,28 +1121,28 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2">
-        <v>12763</v>
+        <v>12794</v>
       </c>
       <c r="E13" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G13" s="2">
         <v>3</v>
       </c>
       <c r="H13" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1161,28 +1153,28 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2">
-        <v>35489</v>
+        <v>35734</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G14" s="2">
         <v>30</v>
       </c>
       <c r="H14" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1193,16 +1185,16 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2">
-        <v>29611</v>
+        <v>29656</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="2">
         <v>2</v>
@@ -1214,7 +1206,7 @@
         <v>35</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1225,28 +1217,28 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2">
-        <v>33365</v>
+        <v>33547</v>
       </c>
       <c r="E16" s="2">
         <v>8</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G16" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I16" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1257,16 +1249,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2">
-        <v>30422</v>
+        <v>30719</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="2">
         <v>30</v>
@@ -1278,7 +1270,7 @@
         <v>21</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1289,16 +1281,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2">
-        <v>33469</v>
+        <v>33640</v>
       </c>
       <c r="E18" s="2">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="2">
         <v>22</v>
@@ -1310,7 +1302,7 @@
         <v>42</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1321,28 +1313,28 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2">
-        <v>31965</v>
+        <v>32256</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I19" s="2">
         <v>11</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1353,28 +1345,28 @@
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2">
-        <v>34939</v>
+        <v>35078</v>
       </c>
       <c r="E20" s="2">
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I20" s="2">
         <v>12</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1385,16 +1377,16 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2">
-        <v>5240</v>
+        <v>5246</v>
       </c>
       <c r="E21" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -1403,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1417,16 +1409,16 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2">
-        <v>36128</v>
+        <v>36247</v>
       </c>
       <c r="E22" s="2">
         <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" s="2">
         <v>20</v>
@@ -1438,7 +1430,7 @@
         <v>31</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1449,10 +1441,10 @@
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="2">
-        <v>5244</v>
+        <v>5398</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1468,7 +1460,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1479,28 +1471,28 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2">
-        <v>32684</v>
+        <v>32897</v>
       </c>
       <c r="E24" s="2">
         <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G24" s="2">
         <v>26</v>
       </c>
       <c r="H24" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I24" s="2">
         <v>14</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1511,15 +1503,17 @@
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="2">
         <v>20349</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G25" s="2">
         <v>2</v>
       </c>
@@ -1530,7 +1524,7 @@
         <v>21</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1541,15 +1535,17 @@
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="2">
-        <v>39935</v>
+        <v>39912</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
@@ -1560,7 +1556,7 @@
         <v>23</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1571,17 +1567,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2">
-        <v>40012</v>
+        <v>40007</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="G27" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H27" s="2">
         <v>5</v>
@@ -1590,7 +1588,7 @@
         <v>38</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1601,28 +1599,28 @@
         <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="2">
-        <v>30178</v>
+        <v>32856</v>
       </c>
       <c r="E28" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G28" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I28" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1633,28 +1631,26 @@
         <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="2">
-        <v>32608</v>
+        <v>7758</v>
       </c>
       <c r="E29" s="2">
-        <v>6</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="H29" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I29" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1662,31 +1658,29 @@
         <v>36</v>
       </c>
       <c r="B30" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="2">
-        <v>7758</v>
+        <v>32074</v>
       </c>
       <c r="E30" s="2">
-        <v>6</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1697,88 +1691,58 @@
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="2">
-        <v>5458</v>
+        <v>31236</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G31" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I31" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="2">
-        <v>10</v>
-      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="2">
-        <v>31989</v>
+        <v>31920</v>
       </c>
       <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G32" s="2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I32" s="2">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="2">
-        <v>10</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="2">
-        <v>31223</v>
-      </c>
-      <c r="E33" s="2">
-        <v>10</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="2">
-        <v>35</v>
-      </c>
-      <c r="H33" s="2">
-        <v>16</v>
-      </c>
-      <c r="I33" s="2">
-        <v>13</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1786,7 +1750,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H33">
+  <conditionalFormatting sqref="A2:H31">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c6/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6/c6aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="111">
   <si>
     <t>player</t>
   </si>
@@ -100,39 +100,42 @@
     <t>Terrific🎃🎃🎃</t>
   </si>
   <si>
+    <t>23x41</t>
+  </si>
+  <si>
+    <t>eric</t>
+  </si>
+  <si>
+    <t>y e a s t</t>
+  </si>
+  <si>
+    <t>Tribe | LHC 2</t>
+  </si>
+  <si>
+    <t>joshua</t>
+  </si>
+  <si>
+    <t>☬ℝ𝔸𝕋𝕋𝕃𝔼ℝ☬</t>
+  </si>
+  <si>
+    <t>IX|LIT</t>
+  </si>
+  <si>
+    <t>Mini|Benn🎯</t>
+  </si>
+  <si>
+    <t>yikkizh</t>
+  </si>
+  <si>
     <t>DOOM</t>
   </si>
   <si>
-    <t>The Legend</t>
-  </si>
-  <si>
-    <t>eric</t>
-  </si>
-  <si>
-    <t>Tribe | LHC 2</t>
-  </si>
-  <si>
-    <t>joshua</t>
-  </si>
-  <si>
-    <t>☬ℝ𝔸𝕋𝕋𝕃𝔼ℝ☬</t>
-  </si>
-  <si>
-    <t>IX|LIT</t>
-  </si>
-  <si>
-    <t>Mini|Benn🎯</t>
-  </si>
-  <si>
     <t>Synderella</t>
   </si>
   <si>
     <t>shauntws</t>
   </si>
   <si>
-    <t>23x41</t>
-  </si>
-  <si>
     <t>#JVQP8LLY</t>
   </si>
   <si>
@@ -187,39 +190,42 @@
     <t>#LQL0U9VP2</t>
   </si>
   <si>
+    <t>#929U0Y88R</t>
+  </si>
+  <si>
+    <t>#80VR8V9</t>
+  </si>
+  <si>
+    <t>#8YQQ9VYPU</t>
+  </si>
+  <si>
+    <t>#V8VRPRYQ</t>
+  </si>
+  <si>
+    <t>#C29RQJLU</t>
+  </si>
+  <si>
+    <t>#89GV9UG9Q</t>
+  </si>
+  <si>
+    <t>#8V09Y2Y8</t>
+  </si>
+  <si>
+    <t>#9RVV02QQ</t>
+  </si>
+  <si>
+    <t>#2GJRP9P9P</t>
+  </si>
+  <si>
     <t>#CPJC0QUV</t>
   </si>
   <si>
-    <t>#9PRLUPQJL</t>
-  </si>
-  <si>
-    <t>#80VR8V9</t>
-  </si>
-  <si>
-    <t>#V8VRPRYQ</t>
-  </si>
-  <si>
-    <t>#C29RQJLU</t>
-  </si>
-  <si>
-    <t>#89GV9UG9Q</t>
-  </si>
-  <si>
-    <t>#8V09Y2Y8</t>
-  </si>
-  <si>
-    <t>#9RVV02QQ</t>
-  </si>
-  <si>
     <t>#R80JC998</t>
   </si>
   <si>
     <t>#GJCYYV0P</t>
   </si>
   <si>
-    <t>#929U0Y88R</t>
-  </si>
-  <si>
     <t>Diamond I</t>
   </si>
   <si>
@@ -229,6 +235,9 @@
     <t>Diamond III</t>
   </si>
   <si>
+    <t>Gold III</t>
+  </si>
+  <si>
     <t>Diamond II</t>
   </si>
   <si>
@@ -238,12 +247,12 @@
     <t>Gold II</t>
   </si>
   <si>
+    <t>Mythic I</t>
+  </si>
+  <si>
     <t>Mythic III</t>
   </si>
   <si>
-    <t>Gold III</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMBER, BEA, BELLE, BIBI, BO, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CHESTER, ... </t>
   </si>
   <si>
@@ -283,13 +292,13 @@
     <t xml:space="preserve">8-BIT, AMBER, ASH, BELLE, BO, BONNIE, BROCK, BUSTER, BYRON, CHESTER, COLETTE, CROW, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BO, BONNIE, BROCK, CARL, COLT, CROW, DARRYL, EMZ, FRANK, GALE, GENE, LEON, ... </t>
+    <t xml:space="preserve">BO, BONNIE, BROCK, CARL, CHESTER, COLT, CROW, DARRYL, EMZ, FRANK, GALE, GENE, ... </t>
   </si>
   <si>
     <t xml:space="preserve">BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, CHESTER, COLETTE, CROW, DARRYL, ... </t>
   </si>
   <si>
-    <t>BO, COLETTE, COLT, CROW, FANG, MAX, MORTIS, STU, SURGE, TARA</t>
+    <t>BO, COLETTE, COLT, CROW, FANG, GENE, MAX, MORTIS, STU, SURGE, TARA</t>
   </si>
   <si>
     <t>8-BIT, BUSTER, CHESTER, DYNAMIKE, EDGAR, EMZ, GRAY, MEG, PENNY, POCO, STU</t>
@@ -298,43 +307,46 @@
     <t>CARL, COLT, RICO</t>
   </si>
   <si>
+    <t>BUZZ, MAX, RICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BELLE, EVE, GENE, GRIFF, GUS, LOLA, LOU, NANI, POCO, SPIKE, SPROUT, ... </t>
+  </si>
+  <si>
+    <t>BELLE, BROCK, GENE, GRAY, GUS, PENNY, PIPER, RICO, SPIKE, STU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, BARLEY, BONNIE, BROCK, CARL, CROW, DARRYL, EL PRIMO, EMZ, EVE, FANG, GROM, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARLEY, BELLE, BIBI, BO, BYRON, COLT, CROW, DARRYL, EMZ, EVE, GRIFF, LOU, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BIBI, BO, BROCK, BUZZ, CARL, CHESTER, COLETTE, CROW, ... </t>
+  </si>
+  <si>
+    <t>BIBI, CHESTER, MORTIS, RICO, TARA</t>
+  </si>
+  <si>
+    <t>BO, DARRYL, GROM, LOLA, PAM, PENNY, RICO, SPIKE</t>
+  </si>
+  <si>
+    <t>AMBER, BUSTER, CARL, CHESTER, CROW, GALE, GRIFF, JANET, POCO, SURGE</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASH, BEA, BELLE, BO, BONNIE, BUSTER, CARL, CHESTER, CROW, EMZ, EVE, GENE, ... </t>
   </si>
   <si>
-    <t>BULL, MORTIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BELLE, EVE, GENE, GRIFF, LOLA, LOU, NANI, POCO, SPIKE, SPROUT, SURGE, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, BONNIE, BROCK, CARL, CROW, DARRYL, EL PRIMO, EMZ, EVE, FANG, GROM, GUS, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARLEY, BELLE, BIBI, BO, BYRON, COLT, CROW, DARRYL, EMZ, EVE, GRIFF, LOU, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BIBI, BO, BROCK, BUZZ, CARL, CHESTER, COLETTE, CROW, ... </t>
-  </si>
-  <si>
-    <t>BIBI, CHESTER, MORTIS, RICO, TARA</t>
-  </si>
-  <si>
-    <t>BO, DARRYL, LOLA, PAM, PENNY, RICO, SPIKE</t>
-  </si>
-  <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
   </si>
   <si>
     <t xml:space="preserve">ASH, BYRON, CARL, CROW, EMZ, EVE, GENE, GRIFF, PAM, SANDY, SPIKE, STU, ... </t>
   </si>
   <si>
-    <t>BUZZ, MAX, RICO</t>
-  </si>
-  <si>
     <t>C6 Brawler Levels</t>
   </si>
   <si>
-    <t>2023-01-11</t>
+    <t>2023-01-18</t>
   </si>
 </sst>
 </file>
@@ -705,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS32"/>
+  <dimension ref="A1:AS33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -718,7 +730,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -767,22 +779,22 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
-        <v>37413</v>
+        <v>37473</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2">
         <v>20</v>
@@ -794,7 +806,7 @@
         <v>41</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -837,16 +849,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2">
-        <v>37413</v>
+        <v>37473</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2">
         <v>20</v>
@@ -858,7 +870,7 @@
         <v>41</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -869,16 +881,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2">
-        <v>30568</v>
+        <v>30748</v>
       </c>
       <c r="E5" s="2">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2">
         <v>38</v>
@@ -890,7 +902,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -901,28 +913,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2">
-        <v>38043</v>
+        <v>38061</v>
       </c>
       <c r="E6" s="2">
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="2">
         <v>41</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -933,17 +945,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2">
         <v>24928</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G7" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2">
         <v>2</v>
@@ -952,7 +966,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -963,16 +977,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>35022</v>
+        <v>35054</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G8" s="2">
         <v>22</v>
@@ -984,7 +998,7 @@
         <v>29</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -995,28 +1009,28 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2">
-        <v>37349</v>
+        <v>38615</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G9" s="2">
         <v>24</v>
       </c>
       <c r="H9" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9" s="2">
         <v>16</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1027,16 +1041,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2">
-        <v>36575</v>
+        <v>36567</v>
       </c>
       <c r="E10" s="2">
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G10" s="2">
         <v>18</v>
@@ -1048,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1059,15 +1073,17 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2">
-        <v>40024</v>
+        <v>40417</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
@@ -1075,10 +1091,10 @@
         <v>31</v>
       </c>
       <c r="I11" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1089,17 +1105,15 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2">
-        <v>29747</v>
+        <v>29883</v>
       </c>
       <c r="E12" s="2">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2">
         <v>37</v>
       </c>
@@ -1110,7 +1124,7 @@
         <v>11</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1121,19 +1135,19 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2">
-        <v>12794</v>
+        <v>12858</v>
       </c>
       <c r="E13" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="2">
         <v>38</v>
@@ -1142,7 +1156,7 @@
         <v>3</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1153,16 +1167,16 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2">
-        <v>35734</v>
+        <v>36106</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2">
         <v>30</v>
@@ -1174,7 +1188,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1185,16 +1199,16 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2">
-        <v>29656</v>
+        <v>29696</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G15" s="2">
         <v>2</v>
@@ -1203,10 +1217,10 @@
         <v>27</v>
       </c>
       <c r="I15" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1217,28 +1231,28 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2">
-        <v>33547</v>
+        <v>33613</v>
       </c>
       <c r="E16" s="2">
         <v>8</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="2">
         <v>12</v>
       </c>
       <c r="I16" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1249,28 +1263,28 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2">
-        <v>30719</v>
+        <v>31184</v>
       </c>
       <c r="E17" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G17" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H17" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I17" s="2">
         <v>21</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1281,16 +1295,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2">
-        <v>33640</v>
+        <v>33834</v>
       </c>
       <c r="E18" s="2">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G18" s="2">
         <v>22</v>
@@ -1299,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1313,28 +1327,28 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2">
-        <v>32256</v>
+        <v>32426</v>
       </c>
       <c r="E19" s="2">
         <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G19" s="2">
         <v>36</v>
       </c>
       <c r="H19" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I19" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1345,19 +1359,19 @@
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2">
-        <v>35078</v>
+        <v>35016</v>
       </c>
       <c r="E20" s="2">
         <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="2">
         <v>45</v>
@@ -1366,7 +1380,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1377,16 +1391,16 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2">
-        <v>5246</v>
+        <v>5611</v>
       </c>
       <c r="E21" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -1398,7 +1412,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1409,28 +1423,28 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2">
-        <v>36247</v>
+        <v>32138</v>
       </c>
       <c r="E22" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G22" s="2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H22" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I22" s="2">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1441,26 +1455,28 @@
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2">
-        <v>5398</v>
+        <v>33387</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G23" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H23" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I23" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1471,28 +1487,28 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2">
-        <v>32897</v>
+        <v>31744</v>
       </c>
       <c r="E24" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G24" s="2">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H24" s="2">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I24" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1503,28 +1519,28 @@
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2">
-        <v>20349</v>
+        <v>20616</v>
       </c>
       <c r="E25" s="2">
         <v>15</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G25" s="2">
         <v>2</v>
       </c>
       <c r="H25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1535,28 +1551,28 @@
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2">
-        <v>39912</v>
+        <v>40256</v>
       </c>
       <c r="E26" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I26" s="2">
         <v>23</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1567,28 +1583,28 @@
         <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D27" s="2">
-        <v>40007</v>
+        <v>40032</v>
       </c>
       <c r="E27" s="2">
         <v>9</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G27" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H27" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I27" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1599,16 +1615,16 @@
         <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="2">
-        <v>32856</v>
+        <v>32857</v>
       </c>
       <c r="E28" s="2">
         <v>6</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G28" s="2">
         <v>35</v>
@@ -1620,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1631,10 +1647,10 @@
         <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" s="2">
-        <v>7758</v>
+        <v>7822</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -1644,13 +1660,13 @@
         <v>5</v>
       </c>
       <c r="H29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1658,29 +1674,31 @@
         <v>36</v>
       </c>
       <c r="B30" s="2">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="2">
+        <v>34206</v>
+      </c>
+      <c r="E30" s="2">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="2">
+        <v>25</v>
+      </c>
+      <c r="H30" s="2">
         <v>10</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="2">
-        <v>32074</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
       <c r="I30" s="2">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1691,58 +1709,90 @@
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D31" s="2">
-        <v>31236</v>
+        <v>36636</v>
       </c>
       <c r="E31" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G31" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H31" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2">
+        <v>10</v>
+      </c>
       <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D32" s="2">
-        <v>31920</v>
+        <v>32074</v>
       </c>
       <c r="E32" s="2">
-        <v>12</v>
-      </c>
-      <c r="F32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>64</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="2">
+        <v>31312</v>
+      </c>
+      <c r="E33" s="2">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="2">
-        <v>26</v>
-      </c>
-      <c r="H32" s="2">
-        <v>23</v>
-      </c>
-      <c r="I32" s="2">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>104</v>
+      <c r="G33" s="2">
+        <v>35</v>
+      </c>
+      <c r="H33" s="2">
+        <v>16</v>
+      </c>
+      <c r="I33" s="2">
+        <v>13</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1800,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H31">
+  <conditionalFormatting sqref="A2:H33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c6/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6/c6aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
   <si>
     <t>player</t>
   </si>
@@ -49,9 +49,6 @@
     <t>SuperGod</t>
   </si>
   <si>
-    <t>Ys</t>
-  </si>
-  <si>
     <t>cuteangel</t>
   </si>
   <si>
@@ -91,57 +88,57 @@
     <t>xardas</t>
   </si>
   <si>
+    <t>FuSiOn | ライオン🖤</t>
+  </si>
+  <si>
     <t>LA | FLASH</t>
   </si>
   <si>
-    <t>Snoopy&gt;.&lt;|をゆひせぬ</t>
+    <t>DOOM</t>
+  </si>
+  <si>
+    <t>eric</t>
+  </si>
+  <si>
+    <t>☣️RSG|SNIPER⛩️</t>
+  </si>
+  <si>
+    <t>Tribe | LHC 2</t>
+  </si>
+  <si>
+    <t>joshua</t>
+  </si>
+  <si>
+    <t>☬ℝ𝔸𝕋𝕋𝕃𝔼ℝ☬</t>
+  </si>
+  <si>
+    <t>Enigma</t>
   </si>
   <si>
     <t>Terrific🎃🎃🎃</t>
   </si>
   <si>
-    <t>23x41</t>
-  </si>
-  <si>
-    <t>eric</t>
-  </si>
-  <si>
-    <t>y e a s t</t>
-  </si>
-  <si>
-    <t>Tribe | LHC 2</t>
-  </si>
-  <si>
-    <t>joshua</t>
-  </si>
-  <si>
-    <t>☬ℝ𝔸𝕋𝕋𝕃𝔼ℝ☬</t>
-  </si>
-  <si>
-    <t>IX|LIT</t>
-  </si>
-  <si>
-    <t>Mini|Benn🎯</t>
-  </si>
-  <si>
-    <t>yikkizh</t>
-  </si>
-  <si>
-    <t>DOOM</t>
-  </si>
-  <si>
-    <t>Synderella</t>
-  </si>
-  <si>
-    <t>shauntws</t>
+    <t>LHC🥰DreamThree</t>
+  </si>
+  <si>
+    <t>SilverBlue</t>
+  </si>
+  <si>
+    <t>jem</t>
+  </si>
+  <si>
+    <t>Destroyer YT</t>
+  </si>
+  <si>
+    <t>NRG |SARDORBEK</t>
+  </si>
+  <si>
+    <t>Silent killer</t>
   </si>
   <si>
     <t>#JVQP8LLY</t>
   </si>
   <si>
-    <t>#C00LQCUP</t>
-  </si>
-  <si>
     <t>#JJV99PV9</t>
   </si>
   <si>
@@ -181,94 +178,97 @@
     <t>#2P88VGRL0</t>
   </si>
   <si>
+    <t>#22Q2J2J</t>
+  </si>
+  <si>
     <t>#2YCQJ00Y</t>
   </si>
   <si>
-    <t>#C9RCCU8J</t>
+    <t>#CPJC0QUV</t>
+  </si>
+  <si>
+    <t>#80VR8V9</t>
+  </si>
+  <si>
+    <t>#PJYRVCJR9</t>
+  </si>
+  <si>
+    <t>#V8VRPRYQ</t>
+  </si>
+  <si>
+    <t>#C29RQJLU</t>
+  </si>
+  <si>
+    <t>#89GV9UG9Q</t>
+  </si>
+  <si>
+    <t>#QRCPQG02U</t>
   </si>
   <si>
     <t>#LQL0U9VP2</t>
   </si>
   <si>
-    <t>#929U0Y88R</t>
-  </si>
-  <si>
-    <t>#80VR8V9</t>
-  </si>
-  <si>
-    <t>#8YQQ9VYPU</t>
-  </si>
-  <si>
-    <t>#V8VRPRYQ</t>
-  </si>
-  <si>
-    <t>#C29RQJLU</t>
-  </si>
-  <si>
-    <t>#89GV9UG9Q</t>
-  </si>
-  <si>
-    <t>#8V09Y2Y8</t>
-  </si>
-  <si>
-    <t>#9RVV02QQ</t>
-  </si>
-  <si>
-    <t>#2GJRP9P9P</t>
-  </si>
-  <si>
-    <t>#CPJC0QUV</t>
-  </si>
-  <si>
-    <t>#R80JC998</t>
-  </si>
-  <si>
-    <t>#GJCYYV0P</t>
+    <t>#LQQQ9YLL9</t>
+  </si>
+  <si>
+    <t>#2JR0CJCRY</t>
+  </si>
+  <si>
+    <t>#22LYUC8G8</t>
+  </si>
+  <si>
+    <t>#2JVY9LJR</t>
+  </si>
+  <si>
+    <t>#9CV9RVCQL</t>
+  </si>
+  <si>
+    <t>#LCUGVC9R0</t>
   </si>
   <si>
     <t>Diamond I</t>
   </si>
   <si>
-    <t>Silver III</t>
-  </si>
-  <si>
     <t>Diamond III</t>
   </si>
   <si>
+    <t>Mythic II</t>
+  </si>
+  <si>
+    <t>Mythic I</t>
+  </si>
+  <si>
+    <t>Diamond II</t>
+  </si>
+  <si>
+    <t>Gold I</t>
+  </si>
+  <si>
+    <t>Gold II</t>
+  </si>
+  <si>
+    <t>Mythic III</t>
+  </si>
+  <si>
     <t>Gold III</t>
   </si>
   <si>
-    <t>Diamond II</t>
-  </si>
-  <si>
-    <t>Gold I</t>
-  </si>
-  <si>
-    <t>Gold II</t>
-  </si>
-  <si>
-    <t>Mythic I</t>
-  </si>
-  <si>
-    <t>Mythic III</t>
+    <t>Bronze II</t>
   </si>
   <si>
     <t xml:space="preserve">AMBER, BEA, BELLE, BIBI, BO, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CHESTER, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BARLEY, BO, CROW, DARRYL, EMZ, EVE, JESSIE, NANI, NITA, PENNY, POCO, SANDY, ... </t>
-  </si>
-  <si>
     <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BONNIE, BROCK, BULL, BUSTER, BUZZ, CARL, CHESTER, COLETTE, ... </t>
   </si>
   <si>
-    <t>DARRYL, EL PRIMO, GALE, JESSIE, LEON, SANDY, SPIKE, SURGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, COLETTE, CROW, DARRYL, EMZ, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BROCK, BUSTER, CARL, CHESTER, COLETTE, CROW, FANG, MORTIS, POCO, ... </t>
+    <t>DARRYL, EDGAR, EL PRIMO, GALE, JESSIE, LEON, SANDY, SPIKE, SURGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, COLETTE, CROW, DARRYL, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BROCK, BUSTER, CARL, CHESTER, COLETTE, CROW, FANG, GENE, MEG, ... </t>
   </si>
   <si>
     <t>8-BIT, ASH, BIBI, TICK</t>
@@ -280,73 +280,70 @@
     <t>BEA, BO, EMZ, GUS, JACKY, MORTIS, PENNY, PIPER, POCO, SPIKE, SQUEAK</t>
   </si>
   <si>
-    <t>BROCK, BUZZ, PENNY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA, BO, BUSTER, BYRON, CARL, CHESTER, CROW, GENE, GRIFF, GROM, MAX, PAM, ... </t>
+    <t>BROCK, BUZZ, GROM, PENNY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BO, BUSTER, BYRON, CARL, CHESTER, COLETTE, CROW, DARRYL, GENE, GRIFF, GROM, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, CHESTER, COLT, CROW, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BELLE, BO, BONNIE, BROCK, BUSTER, BYRON, CHESTER, COLETTE, CROW, ... </t>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BELLE, BIBI, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, CARL, ... </t>
   </si>
   <si>
     <t xml:space="preserve">BO, BONNIE, BROCK, CARL, CHESTER, COLT, CROW, DARRYL, EMZ, FRANK, GALE, GENE, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, CHESTER, COLETTE, CROW, DARRYL, ... </t>
-  </si>
-  <si>
-    <t>BO, COLETTE, COLT, CROW, FANG, GENE, MAX, MORTIS, STU, SURGE, TARA</t>
-  </si>
-  <si>
-    <t>8-BIT, BUSTER, CHESTER, DYNAMIKE, EDGAR, EMZ, GRAY, MEG, PENNY, POCO, STU</t>
-  </si>
-  <si>
-    <t>CARL, COLT, RICO</t>
-  </si>
-  <si>
-    <t>BUZZ, MAX, RICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BELLE, EVE, GENE, GRIFF, GUS, LOLA, LOU, NANI, POCO, SPIKE, SPROUT, ... </t>
-  </si>
-  <si>
-    <t>BELLE, BROCK, GENE, GRAY, GUS, PENNY, PIPER, RICO, SPIKE, STU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, BARLEY, BONNIE, BROCK, CARL, CROW, DARRYL, EL PRIMO, EMZ, EVE, FANG, GROM, ... </t>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, CHESTER, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO, COLETTE, COLT, CROW, EMZ, FANG, GENE, LEON, MAX, MORTIS, STU, SURGE, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BO, BONNIE, BROCK, BUSTER, CARL, CHESTER, CROW, EMZ, EVE, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BELLE, EVE, GENE, GRIFF, GUS, LOLA, LOU, MEG, NANI, POCO, SPIKE, ... </t>
+  </si>
+  <si>
+    <t>CROW, LEON, MORTIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, BARLEY, BONNIE, BROCK, CARL, CROW, DARRYL, EDGAR, EL PRIMO, EMZ, EVE, FANG, ... </t>
   </si>
   <si>
     <t xml:space="preserve">BARLEY, BELLE, BIBI, BO, BYRON, COLT, CROW, DARRYL, EMZ, EVE, GRIFF, LOU, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BIBI, BO, BROCK, BUZZ, CARL, CHESTER, COLETTE, CROW, ... </t>
-  </si>
-  <si>
-    <t>BIBI, CHESTER, MORTIS, RICO, TARA</t>
-  </si>
-  <si>
-    <t>BO, DARRYL, GROM, LOLA, PAM, PENNY, RICO, SPIKE</t>
-  </si>
-  <si>
-    <t>AMBER, BUSTER, CARL, CHESTER, CROW, GALE, GRIFF, JANET, POCO, SURGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BO, BONNIE, BUSTER, CARL, CHESTER, CROW, EMZ, EVE, GENE, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BYRON, CARL, CROW, EMZ, EVE, GENE, GRIFF, PAM, SANDY, SPIKE, STU, ... </t>
+    <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BIBI, BO, BROCK, BUSTER, BUZZ, CARL, CHESTER, COLETTE, ... </t>
+  </si>
+  <si>
+    <t>BO, CARL, NITA, PENNY</t>
+  </si>
+  <si>
+    <t>BEA, CARL, COLT, JANET, POCO, RICO</t>
+  </si>
+  <si>
+    <t>CARL, DARRYL, GENE, GUS, JACKY, PENNY, RICO, TICK</t>
+  </si>
+  <si>
+    <t>BROCK, CARL</t>
+  </si>
+  <si>
+    <t>AMBER, COLT, CROW, EDGAR, LEON</t>
+  </si>
+  <si>
+    <t>ASH, BO, BROCK, CROW, EVE, FANG, GALE, PENNY, SQUEAK, SURGE, TARA</t>
+  </si>
+  <si>
+    <t>8-BIT, ASH, BULL, FANG, GRIFF, GUS, LEON, SPIKE</t>
   </si>
   <si>
     <t>C6 Brawler Levels</t>
   </si>
   <si>
-    <t>2023-01-18</t>
+    <t>2023-02-22</t>
   </si>
 </sst>
 </file>
@@ -730,7 +727,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -779,7 +776,7 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -788,7 +785,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="2">
-        <v>37473</v>
+        <v>37466</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
@@ -797,16 +794,16 @@
         <v>70</v>
       </c>
       <c r="G2" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -852,7 +849,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="2">
-        <v>37473</v>
+        <v>37466</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
@@ -861,16 +858,16 @@
         <v>70</v>
       </c>
       <c r="G4" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -884,25 +881,25 @@
         <v>41</v>
       </c>
       <c r="D5" s="2">
-        <v>30748</v>
+        <v>38669</v>
       </c>
       <c r="E5" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G5" s="2">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I5" s="2">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -910,31 +907,29 @@
         <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="2">
-        <v>38061</v>
+        <v>25116</v>
       </c>
       <c r="E6" s="2">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="2">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -948,25 +943,25 @@
         <v>43</v>
       </c>
       <c r="D7" s="2">
-        <v>24928</v>
+        <v>35766</v>
       </c>
       <c r="E7" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2">
         <v>22</v>
       </c>
       <c r="H7" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -980,25 +975,25 @@
         <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>35054</v>
+        <v>39316</v>
       </c>
       <c r="E8" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I8" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1006,31 +1001,31 @@
         <v>15</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="2">
-        <v>38615</v>
+        <v>36486</v>
       </c>
       <c r="E9" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H9" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I9" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1044,25 +1039,25 @@
         <v>46</v>
       </c>
       <c r="D10" s="2">
-        <v>36567</v>
+        <v>40933</v>
       </c>
       <c r="E10" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I10" s="2">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1076,25 +1071,25 @@
         <v>47</v>
       </c>
       <c r="D11" s="2">
-        <v>40417</v>
+        <v>29848</v>
       </c>
       <c r="E11" s="2">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="2">
+        <v>38</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2">
         <v>11</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>31</v>
-      </c>
-      <c r="I11" s="2">
-        <v>34</v>
-      </c>
       <c r="J11" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1102,29 +1097,31 @@
         <v>18</v>
       </c>
       <c r="B12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="2">
-        <v>29883</v>
+        <v>12997</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="G12" s="2">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="H12" s="2">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="I12" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1138,25 +1135,25 @@
         <v>49</v>
       </c>
       <c r="D13" s="2">
-        <v>12858</v>
+        <v>37248</v>
       </c>
       <c r="E13" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H13" s="2">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="I13" s="2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1170,25 +1167,25 @@
         <v>50</v>
       </c>
       <c r="D14" s="2">
-        <v>36106</v>
+        <v>29734</v>
       </c>
       <c r="E14" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G14" s="2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H14" s="2">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I14" s="2">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1196,31 +1193,31 @@
         <v>21</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="2">
-        <v>29696</v>
+        <v>34355</v>
       </c>
       <c r="E15" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G15" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H15" s="2">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I15" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1234,25 +1231,25 @@
         <v>52</v>
       </c>
       <c r="D16" s="2">
-        <v>33613</v>
+        <v>33238</v>
       </c>
       <c r="E16" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G16" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H16" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I16" s="2">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1266,25 +1263,25 @@
         <v>53</v>
       </c>
       <c r="D17" s="2">
-        <v>31184</v>
+        <v>34573</v>
       </c>
       <c r="E17" s="2">
         <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="2">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H17" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1292,32 +1289,30 @@
         <v>24</v>
       </c>
       <c r="B18" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="2">
-        <v>33834</v>
+        <v>40004</v>
       </c>
       <c r="E18" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G18" s="2">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2">
         <v>0</v>
       </c>
-      <c r="I18" s="2">
-        <v>43</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
@@ -1330,22 +1325,22 @@
         <v>55</v>
       </c>
       <c r="D19" s="2">
-        <v>32426</v>
+        <v>35357</v>
       </c>
       <c r="E19" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G19" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="2">
         <v>7</v>
       </c>
       <c r="I19" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>94</v>
@@ -1356,13 +1351,13 @@
         <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D20" s="2">
-        <v>35016</v>
+        <v>37208</v>
       </c>
       <c r="E20" s="2">
         <v>11</v>
@@ -1371,13 +1366,13 @@
         <v>74</v>
       </c>
       <c r="G20" s="2">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H20" s="2">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="I20" s="2">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>95</v>
@@ -1388,28 +1383,28 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D21" s="2">
-        <v>5611</v>
+        <v>35027</v>
       </c>
       <c r="E21" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I21" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>96</v>
@@ -1426,22 +1421,22 @@
         <v>58</v>
       </c>
       <c r="D22" s="2">
-        <v>32138</v>
+        <v>30500</v>
       </c>
       <c r="E22" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G22" s="2">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H22" s="2">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>97</v>
@@ -1452,28 +1447,28 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="2">
-        <v>33387</v>
+        <v>20914</v>
       </c>
       <c r="E23" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
         <v>25</v>
-      </c>
-      <c r="H23" s="2">
-        <v>19</v>
-      </c>
-      <c r="I23" s="2">
-        <v>15</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>98</v>
@@ -1484,28 +1479,28 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="2">
-        <v>31744</v>
+        <v>40858</v>
       </c>
       <c r="E24" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G24" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="I24" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>99</v>
@@ -1522,22 +1517,22 @@
         <v>61</v>
       </c>
       <c r="D25" s="2">
-        <v>20616</v>
+        <v>39958</v>
       </c>
       <c r="E25" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G25" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H25" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I25" s="2">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>100</v>
@@ -1548,16 +1543,16 @@
         <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D26" s="2">
-        <v>40256</v>
+        <v>5703</v>
       </c>
       <c r="E26" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>73</v>
@@ -1566,10 +1561,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="2">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>101</v>
@@ -1580,28 +1575,28 @@
         <v>33</v>
       </c>
       <c r="B27" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D27" s="2">
-        <v>40032</v>
+        <v>5883</v>
       </c>
       <c r="E27" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G27" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
         <v>6</v>
-      </c>
-      <c r="I27" s="2">
-        <v>39</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>102</v>
@@ -1612,28 +1607,28 @@
         <v>34</v>
       </c>
       <c r="B28" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D28" s="2">
-        <v>32857</v>
+        <v>6045</v>
       </c>
       <c r="E28" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G28" s="2">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="H28" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I28" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>103</v>
@@ -1644,26 +1639,28 @@
         <v>35</v>
       </c>
       <c r="B29" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="2">
-        <v>7822</v>
+        <v>5824</v>
       </c>
       <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G29" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>104</v>
@@ -1674,125 +1671,119 @@
         <v>36</v>
       </c>
       <c r="B30" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D30" s="2">
-        <v>34206</v>
+        <v>35986</v>
       </c>
       <c r="E30" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G30" s="2">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H30" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I30" s="2">
-        <v>11</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="2">
-        <v>10</v>
-      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D31" s="2">
-        <v>36636</v>
+        <v>29363</v>
       </c>
       <c r="E31" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G31" s="2">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H31" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I31" s="2">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="2">
-        <v>10</v>
-      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="2">
-        <v>32074</v>
+        <v>29199</v>
       </c>
       <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G32" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I32" s="2">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="2">
-        <v>10</v>
-      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D33" s="2">
-        <v>31312</v>
+        <v>32655</v>
       </c>
       <c r="E33" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G33" s="2">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H33" s="2">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I33" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1800,7 +1791,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H33">
+  <conditionalFormatting sqref="A2:H30">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c6/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6/c6aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
   <si>
     <t>player</t>
   </si>
@@ -61,13 +61,13 @@
     <t>Tsunami splash</t>
   </si>
   <si>
-    <t>RayDaBest</t>
-  </si>
-  <si>
-    <t>komji</t>
-  </si>
-  <si>
-    <t>宇智波鼬</t>
+    <t>XiXi</t>
+  </si>
+  <si>
+    <t>gkb</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>KMB | ɴᴀᴛᴛɪᴇ♡</t>
@@ -94,16 +94,19 @@
     <t>LA | FLASH</t>
   </si>
   <si>
+    <t>Silent killer</t>
+  </si>
+  <si>
     <t>DOOM</t>
   </si>
   <si>
+    <t>NRG |SARDORBEK</t>
+  </si>
+  <si>
     <t>eric</t>
   </si>
   <si>
-    <t>☣️RSG|SNIPER⛩️</t>
-  </si>
-  <si>
-    <t>Tribe | LHC 2</t>
+    <t>Lil’ LHC</t>
   </si>
   <si>
     <t>joshua</t>
@@ -118,6 +121,9 @@
     <t>Terrific🎃🎃🎃</t>
   </si>
   <si>
+    <t>⚔Sword Emperor⚔</t>
+  </si>
+  <si>
     <t>LHC🥰DreamThree</t>
   </si>
   <si>
@@ -127,15 +133,6 @@
     <t>jem</t>
   </si>
   <si>
-    <t>Destroyer YT</t>
-  </si>
-  <si>
-    <t>NRG |SARDORBEK</t>
-  </si>
-  <si>
-    <t>Silent killer</t>
-  </si>
-  <si>
     <t>#JVQP8LLY</t>
   </si>
   <si>
@@ -151,13 +148,13 @@
     <t>#82GLQ8VQJ</t>
   </si>
   <si>
-    <t>#200U2RLLV</t>
-  </si>
-  <si>
-    <t>#8J9V9U02L</t>
-  </si>
-  <si>
-    <t>#VR2Q28UG</t>
+    <t>#CJ2Y202J</t>
+  </si>
+  <si>
+    <t>#J9CJGRLG</t>
+  </si>
+  <si>
+    <t>#2LQ899P82</t>
   </si>
   <si>
     <t>#2CQYQU0QQ</t>
@@ -184,15 +181,18 @@
     <t>#2YCQJ00Y</t>
   </si>
   <si>
+    <t>#LCUGVC9R0</t>
+  </si>
+  <si>
     <t>#CPJC0QUV</t>
   </si>
   <si>
+    <t>#9CV9RVCQL</t>
+  </si>
+  <si>
     <t>#80VR8V9</t>
   </si>
   <si>
-    <t>#PJYRVCJR9</t>
-  </si>
-  <si>
     <t>#V8VRPRYQ</t>
   </si>
   <si>
@@ -208,6 +208,9 @@
     <t>#LQL0U9VP2</t>
   </si>
   <si>
+    <t>#RV2RQQQC</t>
+  </si>
+  <si>
     <t>#LQQQ9YLL9</t>
   </si>
   <si>
@@ -217,49 +220,10 @@
     <t>#22LYUC8G8</t>
   </si>
   <si>
-    <t>#2JVY9LJR</t>
-  </si>
-  <si>
-    <t>#9CV9RVCQL</t>
-  </si>
-  <si>
-    <t>#LCUGVC9R0</t>
-  </si>
-  <si>
-    <t>Diamond I</t>
-  </si>
-  <si>
-    <t>Diamond III</t>
-  </si>
-  <si>
-    <t>Mythic II</t>
-  </si>
-  <si>
-    <t>Mythic I</t>
-  </si>
-  <si>
-    <t>Diamond II</t>
-  </si>
-  <si>
-    <t>Gold I</t>
-  </si>
-  <si>
-    <t>Gold II</t>
-  </si>
-  <si>
-    <t>Mythic III</t>
-  </si>
-  <si>
-    <t>Gold III</t>
-  </si>
-  <si>
-    <t>Bronze II</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMBER, BEA, BELLE, BIBI, BO, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CHESTER, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BONNIE, BROCK, BULL, BUSTER, BUZZ, CARL, CHESTER, COLETTE, ... </t>
+    <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BO, BONNIE, BROCK, BULL, BUSTER, BUZZ, CARL, CHESTER, ... </t>
   </si>
   <si>
     <t>DARRYL, EDGAR, EL PRIMO, GALE, JESSIE, LEON, SANDY, SPIKE, SURGE</t>
@@ -268,16 +232,16 @@
     <t xml:space="preserve">ASH, BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, COLETTE, CROW, DARRYL, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BROCK, BUSTER, CARL, CHESTER, COLETTE, CROW, FANG, GENE, MEG, ... </t>
-  </si>
-  <si>
-    <t>8-BIT, ASH, BIBI, TICK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMBER, ASH, BARLEY, BO, BONNIE, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CHESTER, ... </t>
-  </si>
-  <si>
-    <t>BEA, BO, EMZ, GUS, JACKY, MORTIS, PENNY, PIPER, POCO, SPIKE, SQUEAK</t>
+    <t xml:space="preserve">ASH, BEA, BELLE, BROCK, BUSTER, CARL, CHESTER, COLETTE, CROW, FANG, GENE, MAX, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, CARL, CHESTER, COLT, CROW, ... </t>
+  </si>
+  <si>
+    <t>BROCK, BYRON, CROW, GRIFF, LEON, MAX, PENNY, PIPER, SPIKE, STU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
   </si>
   <si>
     <t>BROCK, BUZZ, GROM, PENNY</t>
@@ -286,7 +250,7 @@
     <t xml:space="preserve">BEA, BO, BUSTER, BYRON, CARL, CHESTER, COLETTE, CROW, DARRYL, GENE, GRIFF, GROM, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, CHESTER, COLT, CROW, ... </t>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, CHESTER, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BELLE, BIBI, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, CARL, ... </t>
@@ -295,21 +259,21 @@
     <t xml:space="preserve">BO, BONNIE, BROCK, CARL, CHESTER, COLT, CROW, DARRYL, EMZ, FRANK, GALE, GENE, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, CHESTER, ... </t>
-  </si>
-  <si>
     <t xml:space="preserve">BO, COLETTE, COLT, CROW, EMZ, FANG, GENE, LEON, MAX, MORTIS, STU, SURGE, ... </t>
   </si>
   <si>
+    <t>8-BIT, ASH, BULL, FANG, GRIFF, GUS, LEON, SPIKE</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASH, BEA, BELLE, BO, BONNIE, BROCK, BUSTER, CARL, CHESTER, CROW, EMZ, EVE, ... </t>
   </si>
   <si>
+    <t>ASH, BO, BROCK, CROW, EVE, FANG, GALE, PENNY, SQUEAK, SURGE, TARA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASH, BELLE, EVE, GENE, GRIFF, GUS, LOLA, LOU, MEG, NANI, POCO, SPIKE, ... </t>
   </si>
   <si>
-    <t>CROW, LEON, MORTIS</t>
-  </si>
-  <si>
     <t xml:space="preserve">8-BIT, BARLEY, BONNIE, BROCK, CARL, CROW, DARRYL, EDGAR, EL PRIMO, EMZ, EVE, FANG, ... </t>
   </si>
   <si>
@@ -325,25 +289,22 @@
     <t>BEA, CARL, COLT, JANET, POCO, RICO</t>
   </si>
   <si>
-    <t>CARL, DARRYL, GENE, GUS, JACKY, PENNY, RICO, TICK</t>
-  </si>
-  <si>
-    <t>BROCK, CARL</t>
-  </si>
-  <si>
-    <t>AMBER, COLT, CROW, EDGAR, LEON</t>
-  </si>
-  <si>
-    <t>ASH, BO, BROCK, CROW, EVE, FANG, GALE, PENNY, SQUEAK, SURGE, TARA</t>
-  </si>
-  <si>
-    <t>8-BIT, ASH, BULL, FANG, GRIFF, GUS, LEON, SPIKE</t>
+    <t>CARL, CROW, EDGAR, MEG, MORTIS, PENNY, SPIKE, STU, SURGE, TARA</t>
+  </si>
+  <si>
+    <t>CARL, DARRYL, FANG, GENE, GUS, JACKY, PENNY, RICO, TICK</t>
+  </si>
+  <si>
+    <t>BROCK, CARL, PENNY</t>
+  </si>
+  <si>
+    <t>BROCK, GRIFF, SPIKE</t>
   </si>
   <si>
     <t>C6 Brawler Levels</t>
   </si>
   <si>
-    <t>2023-02-22</t>
+    <t>2023-03-03</t>
   </si>
 </sst>
 </file>
@@ -714,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS33"/>
+  <dimension ref="A1:AS32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,7 +688,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -776,34 +737,32 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2">
-        <v>37466</v>
+        <v>37473</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2">
         <v>18</v>
       </c>
       <c r="H2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
         <v>45</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -846,28 +805,26 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2">
-        <v>37466</v>
+        <v>37473</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>18</v>
       </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>45</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -878,28 +835,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2">
-        <v>38669</v>
+        <v>38760</v>
       </c>
       <c r="E5" s="2">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
       </c>
       <c r="I5" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -910,17 +865,17 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2">
-        <v>25116</v>
+        <v>25191</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -929,7 +884,7 @@
         <v>9</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -940,17 +895,15 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2">
-        <v>35766</v>
+        <v>36139</v>
       </c>
       <c r="E7" s="2">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
         <v>22</v>
       </c>
@@ -961,7 +914,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -972,28 +925,26 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2">
-        <v>39316</v>
+        <v>39324</v>
       </c>
       <c r="E8" s="2">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
         <v>23</v>
       </c>
       <c r="H8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1004,28 +955,26 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2">
-        <v>36486</v>
+        <v>35673</v>
       </c>
       <c r="E9" s="2">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H9" s="2">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I9" s="2">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1036,28 +985,26 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2">
-        <v>40933</v>
+        <v>38513</v>
       </c>
       <c r="E10" s="2">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2">
+        <v>35</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>29</v>
-      </c>
-      <c r="I10" s="2">
-        <v>36</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1068,28 +1015,26 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2">
-        <v>29848</v>
+        <v>42361</v>
       </c>
       <c r="E11" s="2">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>55</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="G11" s="2">
-        <v>38</v>
-      </c>
-      <c r="H11" s="2">
-        <v>6</v>
-      </c>
-      <c r="I11" s="2">
-        <v>11</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1100,17 +1045,15 @@
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2">
         <v>12997</v>
       </c>
       <c r="E12" s="2">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2">
         <v>2</v>
       </c>
@@ -1121,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1132,28 +1075,26 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2">
-        <v>37248</v>
+        <v>37319</v>
       </c>
       <c r="E13" s="2">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2">
         <v>28</v>
       </c>
       <c r="H13" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="2">
         <v>23</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1164,28 +1105,26 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2">
-        <v>29734</v>
+        <v>29923</v>
       </c>
       <c r="E14" s="2">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2">
         <v>2</v>
       </c>
       <c r="H14" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I14" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1196,28 +1135,26 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2">
-        <v>34355</v>
+        <v>34479</v>
       </c>
       <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
         <v>8</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="2">
-        <v>9</v>
       </c>
       <c r="H15" s="2">
         <v>7</v>
       </c>
       <c r="I15" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1228,17 +1165,15 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2">
-        <v>33238</v>
+        <v>33244</v>
       </c>
       <c r="E16" s="2">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2">
         <v>21</v>
       </c>
@@ -1249,7 +1184,7 @@
         <v>24</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1260,17 +1195,15 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2">
-        <v>34573</v>
+        <v>34894</v>
       </c>
       <c r="E17" s="2">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2">
         <v>14</v>
       </c>
@@ -1281,7 +1214,7 @@
         <v>50</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1292,19 +1225,17 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2">
-        <v>40004</v>
+        <v>40505</v>
       </c>
       <c r="E18" s="2">
-        <v>12</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H18" s="2">
         <v>3</v>
@@ -1322,17 +1253,15 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2">
-        <v>35357</v>
+        <v>35356</v>
       </c>
       <c r="E19" s="2">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="2">
         <v>35</v>
       </c>
@@ -1343,7 +1272,7 @@
         <v>13</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1351,31 +1280,29 @@
         <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2">
-        <v>37208</v>
+        <v>32702</v>
       </c>
       <c r="E20" s="2">
-        <v>11</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" s="2">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I20" s="2">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1386,28 +1313,26 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2">
-        <v>35027</v>
+        <v>37280</v>
       </c>
       <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
+        <v>21</v>
+      </c>
+      <c r="H21" s="2">
         <v>11</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="2">
-        <v>25</v>
-      </c>
-      <c r="H21" s="2">
-        <v>18</v>
-      </c>
       <c r="I21" s="2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1418,28 +1343,26 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2">
-        <v>30500</v>
+        <v>29475</v>
       </c>
       <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
+        <v>7</v>
+      </c>
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2">
         <v>11</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="2">
-        <v>39</v>
-      </c>
-      <c r="H22" s="2">
-        <v>8</v>
-      </c>
-      <c r="I22" s="2">
-        <v>4</v>
-      </c>
       <c r="J22" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1447,31 +1370,29 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="2">
-        <v>20914</v>
+        <v>35439</v>
       </c>
       <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
+        <v>22</v>
+      </c>
+      <c r="H23" s="2">
+        <v>21</v>
+      </c>
+      <c r="I23" s="2">
         <v>15</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="2">
-        <v>2</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2">
-        <v>25</v>
-      </c>
       <c r="J23" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1482,28 +1403,26 @@
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2">
-        <v>40858</v>
+        <v>21211</v>
       </c>
       <c r="E24" s="2">
-        <v>11</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" s="2">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1514,28 +1433,26 @@
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="2">
-        <v>39958</v>
+        <v>40959</v>
       </c>
       <c r="E25" s="2">
-        <v>9</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="I25" s="2">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1543,31 +1460,29 @@
         <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="2">
-        <v>5703</v>
+        <v>39958</v>
       </c>
       <c r="E26" s="2">
-        <v>13</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I26" s="2">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1578,28 +1493,26 @@
         <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2">
-        <v>5883</v>
+        <v>6050</v>
       </c>
       <c r="E27" s="2">
-        <v>14</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="2">
         <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1607,31 +1520,29 @@
         <v>34</v>
       </c>
       <c r="B28" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="2">
-        <v>6045</v>
+        <v>6050</v>
       </c>
       <c r="E28" s="2">
-        <v>11</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1639,31 +1550,29 @@
         <v>35</v>
       </c>
       <c r="B29" s="2">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="2">
+        <v>35601</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2">
+        <v>31</v>
+      </c>
+      <c r="H29" s="2">
+        <v>14</v>
+      </c>
+      <c r="I29" s="2">
         <v>10</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="2">
-        <v>5824</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="2">
-        <v>2</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2">
-        <v>2</v>
-      </c>
       <c r="J29" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1674,116 +1583,86 @@
         <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="2">
-        <v>35986</v>
+        <v>6316</v>
       </c>
       <c r="E30" s="2">
-        <v>12</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="2">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2">
+        <v>10</v>
+      </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="2">
-        <v>29363</v>
+        <v>6180</v>
       </c>
       <c r="E31" s="2">
-        <v>10</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="2">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H31" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2">
+        <v>10</v>
+      </c>
       <c r="C32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="2">
-        <v>29199</v>
+        <v>36200</v>
       </c>
       <c r="E32" s="2">
-        <v>11</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="2">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="H32" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I32" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="2">
-        <v>32655</v>
-      </c>
-      <c r="E33" s="2">
-        <v>7</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="2">
-        <v>20</v>
-      </c>
-      <c r="H33" s="2">
-        <v>34</v>
-      </c>
-      <c r="I33" s="2">
-        <v>8</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1791,7 +1670,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H30">
+  <conditionalFormatting sqref="A2:H32">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c6/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6/c6aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
   <si>
     <t>player</t>
   </si>
@@ -91,18 +91,12 @@
     <t>FuSiOn | ライオン🖤</t>
   </si>
   <si>
-    <t>LA | FLASH</t>
-  </si>
-  <si>
     <t>Silent killer</t>
   </si>
   <si>
     <t>DOOM</t>
   </si>
   <si>
-    <t>NRG |SARDORBEK</t>
-  </si>
-  <si>
     <t>eric</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>Terrific🎃🎃🎃</t>
   </si>
   <si>
-    <t>⚔Sword Emperor⚔</t>
-  </si>
-  <si>
     <t>LHC🥰DreamThree</t>
   </si>
   <si>
@@ -133,6 +124,15 @@
     <t>jem</t>
   </si>
   <si>
+    <t>Vierkay</t>
+  </si>
+  <si>
+    <t>Ys</t>
+  </si>
+  <si>
+    <t>जय श्री राम</t>
+  </si>
+  <si>
     <t>#JVQP8LLY</t>
   </si>
   <si>
@@ -178,18 +178,12 @@
     <t>#22Q2J2J</t>
   </si>
   <si>
-    <t>#2YCQJ00Y</t>
-  </si>
-  <si>
     <t>#LCUGVC9R0</t>
   </si>
   <si>
     <t>#CPJC0QUV</t>
   </si>
   <si>
-    <t>#9CV9RVCQL</t>
-  </si>
-  <si>
     <t>#80VR8V9</t>
   </si>
   <si>
@@ -208,9 +202,6 @@
     <t>#LQL0U9VP2</t>
   </si>
   <si>
-    <t>#RV2RQQQC</t>
-  </si>
-  <si>
     <t>#LQQQ9YLL9</t>
   </si>
   <si>
@@ -220,6 +211,33 @@
     <t>#22LYUC8G8</t>
   </si>
   <si>
+    <t>#L2UVL80YC</t>
+  </si>
+  <si>
+    <t>#C00LQCUP</t>
+  </si>
+  <si>
+    <t>#CQYY0Y0</t>
+  </si>
+  <si>
+    <t>Diamond II</t>
+  </si>
+  <si>
+    <t>Gold II</t>
+  </si>
+  <si>
+    <t>Silver III</t>
+  </si>
+  <si>
+    <t>Diamond I</t>
+  </si>
+  <si>
+    <t>Diamond III</t>
+  </si>
+  <si>
+    <t>Bronze III</t>
+  </si>
+  <si>
     <t xml:space="preserve">AMBER, BEA, BELLE, BIBI, BO, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CHESTER, ... </t>
   </si>
   <si>
@@ -256,22 +274,16 @@
     <t xml:space="preserve">8-BIT, AMBER, ASH, BELLE, BIBI, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, CARL, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BO, BONNIE, BROCK, CARL, CHESTER, COLT, CROW, DARRYL, EMZ, FRANK, GALE, GENE, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BO, COLETTE, COLT, CROW, EMZ, FANG, GENE, LEON, MAX, MORTIS, STU, SURGE, ... </t>
-  </si>
-  <si>
-    <t>8-BIT, ASH, BULL, FANG, GRIFF, GUS, LEON, SPIKE</t>
+    <t xml:space="preserve">BARLEY, BO, BONNIE, BROCK, CARL, CHESTER, COLT, CROW, DARRYL, EMZ, FRANK, GALE, ... </t>
+  </si>
+  <si>
+    <t>8-BIT, ASH, BULL, COLETTE, FANG, GRIFF, GUS, LEON, SPIKE</t>
   </si>
   <si>
     <t xml:space="preserve">ASH, BEA, BELLE, BO, BONNIE, BROCK, BUSTER, CARL, CHESTER, CROW, EMZ, EVE, ... </t>
   </si>
   <si>
-    <t>ASH, BO, BROCK, CROW, EVE, FANG, GALE, PENNY, SQUEAK, SURGE, TARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BELLE, EVE, GENE, GRIFF, GUS, LOLA, LOU, MEG, NANI, POCO, SPIKE, ... </t>
+    <t xml:space="preserve">ASH, BELLE, CARL, DYNAMIKE, EVE, GENE, GRIFF, GUS, LOLA, LOU, MAX, MEG, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, BARLEY, BONNIE, BROCK, CARL, CROW, DARRYL, EDGAR, EL PRIMO, EMZ, EVE, FANG, ... </t>
@@ -283,28 +295,34 @@
     <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BIBI, BO, BROCK, BUSTER, BUZZ, CARL, CHESTER, COLETTE, ... </t>
   </si>
   <si>
-    <t>BO, CARL, NITA, PENNY</t>
+    <t>BO, CARL, COLETTE, NITA, PENNY</t>
   </si>
   <si>
     <t>BEA, CARL, COLT, JANET, POCO, RICO</t>
   </si>
   <si>
-    <t>CARL, CROW, EDGAR, MEG, MORTIS, PENNY, SPIKE, STU, SURGE, TARA</t>
-  </si>
-  <si>
     <t>CARL, DARRYL, FANG, GENE, GUS, JACKY, PENNY, RICO, TICK</t>
   </si>
   <si>
     <t>BROCK, CARL, PENNY</t>
   </si>
   <si>
-    <t>BROCK, GRIFF, SPIKE</t>
+    <t>BROCK, BUZZ, GRIFF, PENNY, SPIKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BIBI, BO, BONNIE, BULL, CHESTER, COLT, CROW, DARRYL, EDGAR, EL PRIMO, EMZ, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARLEY, BEA, BO, CROW, DARRYL, EMZ, EVE, JESSIE, NANI, NITA, PENNY, POCO, ... </t>
+  </si>
+  <si>
+    <t>COLT, CROW, EMZ, LEON, MAX, STU, TARA</t>
   </si>
   <si>
     <t>C6 Brawler Levels</t>
   </si>
   <si>
-    <t>2023-03-03</t>
+    <t>2023-03-07</t>
   </si>
 </sst>
 </file>
@@ -688,7 +706,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -737,7 +755,7 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -746,7 +764,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="2">
-        <v>37473</v>
+        <v>36382</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -762,7 +780,7 @@
         <v>45</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -808,7 +826,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="2">
-        <v>37473</v>
+        <v>36382</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -824,7 +842,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -838,12 +856,14 @@
         <v>40</v>
       </c>
       <c r="D5" s="2">
-        <v>38760</v>
+        <v>38575</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G5" s="2">
         <v>16</v>
       </c>
@@ -854,7 +874,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -868,12 +888,14 @@
         <v>41</v>
       </c>
       <c r="D6" s="2">
-        <v>25191</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G6" s="2">
         <v>21</v>
       </c>
@@ -884,7 +906,7 @@
         <v>9</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -898,7 +920,7 @@
         <v>42</v>
       </c>
       <c r="D7" s="2">
-        <v>36139</v>
+        <v>36060</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -914,7 +936,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -928,12 +950,14 @@
         <v>43</v>
       </c>
       <c r="D8" s="2">
-        <v>39324</v>
+        <v>39014</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G8" s="2">
         <v>23</v>
       </c>
@@ -944,7 +968,7 @@
         <v>18</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -958,12 +982,14 @@
         <v>44</v>
       </c>
       <c r="D9" s="2">
-        <v>35673</v>
+        <v>34980</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G9" s="2">
         <v>16</v>
       </c>
@@ -974,7 +1000,7 @@
         <v>36</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -988,7 +1014,7 @@
         <v>45</v>
       </c>
       <c r="D10" s="2">
-        <v>38513</v>
+        <v>37548</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1004,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1018,12 +1044,14 @@
         <v>46</v>
       </c>
       <c r="D11" s="2">
-        <v>42361</v>
+        <v>42103</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G11" s="2">
         <v>4</v>
       </c>
@@ -1034,7 +1062,7 @@
         <v>55</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1048,23 +1076,25 @@
         <v>47</v>
       </c>
       <c r="D12" s="2">
-        <v>12997</v>
+        <v>13130</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G12" s="2">
         <v>2</v>
       </c>
       <c r="H12" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I12" s="2">
         <v>4</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1078,12 +1108,14 @@
         <v>48</v>
       </c>
       <c r="D13" s="2">
-        <v>37319</v>
+        <v>36632</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G13" s="2">
         <v>28</v>
       </c>
@@ -1094,7 +1126,7 @@
         <v>23</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1108,12 +1140,14 @@
         <v>49</v>
       </c>
       <c r="D14" s="2">
-        <v>29923</v>
+        <v>29654</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G14" s="2">
         <v>2</v>
       </c>
@@ -1124,7 +1158,7 @@
         <v>37</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1138,12 +1172,14 @@
         <v>50</v>
       </c>
       <c r="D15" s="2">
-        <v>34479</v>
+        <v>34133</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G15" s="2">
         <v>8</v>
       </c>
@@ -1154,7 +1190,7 @@
         <v>49</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1168,23 +1204,25 @@
         <v>51</v>
       </c>
       <c r="D16" s="2">
-        <v>33244</v>
+        <v>33203</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G16" s="2">
         <v>21</v>
       </c>
       <c r="H16" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I16" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1198,12 +1236,14 @@
         <v>52</v>
       </c>
       <c r="D17" s="2">
-        <v>34894</v>
+        <v>34634</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G17" s="2">
         <v>14</v>
       </c>
@@ -1214,7 +1254,7 @@
         <v>50</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1228,17 +1268,19 @@
         <v>53</v>
       </c>
       <c r="D18" s="2">
-        <v>40505</v>
+        <v>39822</v>
       </c>
       <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G18" s="2">
         <v>44</v>
       </c>
       <c r="H18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -1256,23 +1298,25 @@
         <v>54</v>
       </c>
       <c r="D19" s="2">
-        <v>35356</v>
+        <v>32511</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G19" s="2">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H19" s="2">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I19" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1280,29 +1324,31 @@
         <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D20" s="2">
-        <v>32702</v>
+        <v>36605</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G20" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="2">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="I20" s="2">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1316,23 +1362,25 @@
         <v>56</v>
       </c>
       <c r="D21" s="2">
-        <v>37280</v>
+        <v>35129</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G21" s="2">
         <v>21</v>
       </c>
       <c r="H21" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I21" s="2">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1340,29 +1388,29 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="2">
-        <v>29475</v>
+        <v>21139</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H22" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1370,29 +1418,31 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="2">
-        <v>35439</v>
+        <v>40759</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G23" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I23" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1406,23 +1456,23 @@
         <v>59</v>
       </c>
       <c r="D24" s="2">
-        <v>21211</v>
+        <v>38681</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I24" s="2">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1430,29 +1480,31 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D25" s="2">
-        <v>40959</v>
+        <v>7114</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="I25" s="2">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1460,29 +1512,29 @@
         <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D26" s="2">
-        <v>39958</v>
+        <v>6463</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1490,29 +1542,29 @@
         <v>33</v>
       </c>
       <c r="B27" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="2">
-        <v>6050</v>
+        <v>6283</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1520,29 +1572,31 @@
         <v>34</v>
       </c>
       <c r="B28" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="2">
-        <v>6050</v>
+        <v>6376</v>
       </c>
       <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G28" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1550,119 +1604,117 @@
         <v>35</v>
       </c>
       <c r="B29" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="2">
-        <v>35601</v>
+        <v>36038</v>
       </c>
       <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G29" s="2">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H29" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="2">
-        <v>10</v>
-      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D30" s="2">
-        <v>6316</v>
+        <v>35001</v>
       </c>
       <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G30" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I30" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="2">
-        <v>10</v>
-      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D31" s="2">
-        <v>6180</v>
+        <v>30870</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I31" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="2">
-        <v>10</v>
-      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="2">
-        <v>36200</v>
+        <v>29785</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H32" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1722,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H32">
+  <conditionalFormatting sqref="A2:H29">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c6/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6/c6aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
   <si>
     <t>player</t>
   </si>
@@ -49,6 +49,9 @@
     <t>SuperGod</t>
   </si>
   <si>
+    <t>Ys</t>
+  </si>
+  <si>
     <t>cuteangel</t>
   </si>
   <si>
@@ -112,7 +115,10 @@
     <t>Enigma</t>
   </si>
   <si>
-    <t>Terrific🎃🎃🎃</t>
+    <t>ZacharySucks</t>
+  </si>
+  <si>
+    <t>⚔Sword Emperor⚔</t>
   </si>
   <si>
     <t>LHC🥰DreamThree</t>
@@ -124,18 +130,18 @@
     <t>jem</t>
   </si>
   <si>
+    <t>SK|BAHODIR ™</t>
+  </si>
+  <si>
     <t>Vierkay</t>
   </si>
   <si>
-    <t>Ys</t>
-  </si>
-  <si>
-    <t>जय श्री राम</t>
-  </si>
-  <si>
     <t>#JVQP8LLY</t>
   </si>
   <si>
+    <t>#C00LQCUP</t>
+  </si>
+  <si>
     <t>#JJV99PV9</t>
   </si>
   <si>
@@ -199,7 +205,10 @@
     <t>#QRCPQG02U</t>
   </si>
   <si>
-    <t>#LQL0U9VP2</t>
+    <t>#G2GJPR2L2</t>
+  </si>
+  <si>
+    <t>#RV2RQQQC</t>
   </si>
   <si>
     <t>#LQQQ9YLL9</t>
@@ -211,36 +220,36 @@
     <t>#22LYUC8G8</t>
   </si>
   <si>
+    <t>#90RY2RLLY</t>
+  </si>
+  <si>
     <t>#L2UVL80YC</t>
   </si>
   <si>
-    <t>#C00LQCUP</t>
-  </si>
-  <si>
-    <t>#CQYY0Y0</t>
+    <t>Silver III</t>
+  </si>
+  <si>
+    <t>Diamond I</t>
+  </si>
+  <si>
+    <t>Gold II</t>
+  </si>
+  <si>
+    <t>Diamond III</t>
   </si>
   <si>
     <t>Diamond II</t>
   </si>
   <si>
-    <t>Gold II</t>
-  </si>
-  <si>
-    <t>Silver III</t>
-  </si>
-  <si>
-    <t>Diamond I</t>
-  </si>
-  <si>
-    <t>Diamond III</t>
-  </si>
-  <si>
-    <t>Bronze III</t>
+    <t>Mythic I</t>
   </si>
   <si>
     <t xml:space="preserve">AMBER, BEA, BELLE, BIBI, BO, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CHESTER, ... </t>
   </si>
   <si>
+    <t xml:space="preserve">BARLEY, BEA, BO, CROW, DARRYL, EMZ, EVE, JESSIE, NANI, NITA, PENNY, POCO, ... </t>
+  </si>
+  <si>
     <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BO, BONNIE, BROCK, BULL, BUSTER, BUZZ, CARL, CHESTER, ... </t>
   </si>
   <si>
@@ -250,10 +259,10 @@
     <t xml:space="preserve">ASH, BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, COLETTE, CROW, DARRYL, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BROCK, BUSTER, CARL, CHESTER, COLETTE, CROW, FANG, GENE, MAX, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, CARL, CHESTER, COLT, CROW, ... </t>
+    <t xml:space="preserve">ASH, BEA, BELLE, BROCK, BUSTER, CARL, CHESTER, COLETTE, CROW, EDGAR, FANG, GENE, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, CARL, CHESTER, COLETTE, COLT, ... </t>
   </si>
   <si>
     <t>BROCK, BYRON, CROW, GRIFF, LEON, MAX, PENNY, PIPER, SPIKE, STU</t>
@@ -265,13 +274,13 @@
     <t>BROCK, BUZZ, GROM, PENNY</t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BO, BUSTER, BYRON, CARL, CHESTER, COLETTE, CROW, DARRYL, GENE, GRIFF, GROM, ... </t>
+    <t xml:space="preserve">ASH, BEA, BO, BUSTER, BYRON, CARL, CHESTER, COLETTE, CROW, DARRYL, GENE, GRIFF, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, CHESTER, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BELLE, BIBI, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, CARL, ... </t>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BELLE, BIBI, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, ... </t>
   </si>
   <si>
     <t xml:space="preserve">BARLEY, BO, BONNIE, BROCK, CARL, CHESTER, COLT, CROW, DARRYL, EMZ, FRANK, GALE, ... </t>
@@ -280,49 +289,46 @@
     <t>8-BIT, ASH, BULL, COLETTE, FANG, GRIFF, GUS, LEON, SPIKE</t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BO, BONNIE, BROCK, BUSTER, CARL, CHESTER, CROW, EMZ, EVE, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BELLE, CARL, DYNAMIKE, EVE, GENE, GRIFF, GUS, LOLA, LOU, MAX, MEG, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, BARLEY, BONNIE, BROCK, CARL, CROW, DARRYL, EDGAR, EL PRIMO, EMZ, EVE, FANG, ... </t>
+    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, CHESTER, CROW, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BELLE, BUZZ, CARL, DYNAMIKE, EVE, GENE, GRIFF, GUS, LOLA, LOU, MAX, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, BARLEY, BEA, BONNIE, BROCK, CARL, CROW, DARRYL, EDGAR, EL PRIMO, EMZ, EVE, ... </t>
   </si>
   <si>
     <t xml:space="preserve">BARLEY, BELLE, BIBI, BO, BYRON, COLT, CROW, DARRYL, EMZ, EVE, GRIFF, LOU, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BIBI, BO, BROCK, BUSTER, BUZZ, CARL, CHESTER, COLETTE, ... </t>
-  </si>
-  <si>
-    <t>BO, CARL, COLETTE, NITA, PENNY</t>
-  </si>
-  <si>
-    <t>BEA, CARL, COLT, JANET, POCO, RICO</t>
+    <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, CHESTER, ... </t>
+  </si>
+  <si>
+    <t>BEA, BO, CARL, COLETTE, NITA, PENNY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BONNIE, CARL, CROW, EDGAR, GRIFF, MEG, MORTIS, PENNY, SPIKE, STU, SURGE, ... </t>
   </si>
   <si>
     <t>CARL, DARRYL, FANG, GENE, GUS, JACKY, PENNY, RICO, TICK</t>
   </si>
   <si>
-    <t>BROCK, CARL, PENNY</t>
-  </si>
-  <si>
-    <t>BROCK, BUZZ, GRIFF, PENNY, SPIKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BIBI, BO, BONNIE, BULL, CHESTER, COLT, CROW, DARRYL, EDGAR, EL PRIMO, EMZ, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARLEY, BEA, BO, CROW, DARRYL, EMZ, EVE, JESSIE, NANI, NITA, PENNY, POCO, ... </t>
-  </si>
-  <si>
-    <t>COLT, CROW, EMZ, LEON, MAX, STU, TARA</t>
+    <t>BROCK, CARL, PENNY, POCO</t>
+  </si>
+  <si>
+    <t>BROCK, BUZZ, GRIFF, GROM, PENNY, PIPER, POCO, SPIKE</t>
+  </si>
+  <si>
+    <t>BO, BROCK, CROW, GRIFF, SANDY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BIBI, BO, BONNIE, BULL, CHESTER, COLT, CROW, DARRYL, EDGAR, EL PRIMO, ... </t>
   </si>
   <si>
     <t>C6 Brawler Levels</t>
   </si>
   <si>
-    <t>2023-03-07</t>
+    <t>2023-03-16</t>
   </si>
 </sst>
 </file>
@@ -693,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS32"/>
+  <dimension ref="A1:AS33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,7 +712,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -755,16 +761,16 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
-        <v>36382</v>
+        <v>36423</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -780,7 +786,7 @@
         <v>45</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -823,10 +829,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2">
-        <v>36382</v>
+        <v>36423</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -842,7 +848,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -853,28 +859,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2">
-        <v>38575</v>
+        <v>31035</v>
       </c>
       <c r="E5" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2">
         <v>16</v>
       </c>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
       <c r="I5" s="2">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -882,31 +888,31 @@
         <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2">
-        <v>25444</v>
+        <v>38611</v>
       </c>
       <c r="E6" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G6" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
       </c>
       <c r="I6" s="2">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -917,26 +923,28 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2">
-        <v>36060</v>
+        <v>25611</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G7" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I7" s="2">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -947,28 +955,28 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>39014</v>
+        <v>36450</v>
       </c>
       <c r="E8" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G8" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I8" s="2">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -976,31 +984,29 @@
         <v>15</v>
       </c>
       <c r="B9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2">
-        <v>34980</v>
+        <v>39135</v>
       </c>
       <c r="E9" s="2">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I9" s="2">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1011,26 +1017,28 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2">
-        <v>37548</v>
+        <v>35057</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G10" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H10" s="2">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="I10" s="2">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1041,28 +1049,26 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2">
-        <v>42103</v>
+        <v>37580</v>
       </c>
       <c r="E11" s="2">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H11" s="2">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="I11" s="2">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1070,31 +1076,31 @@
         <v>18</v>
       </c>
       <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="2">
+        <v>42112</v>
+      </c>
+      <c r="E12" s="2">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="2">
-        <v>13130</v>
-      </c>
-      <c r="E12" s="2">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2</v>
-      </c>
       <c r="H12" s="2">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="I12" s="2">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1105,28 +1111,28 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2">
-        <v>36632</v>
+        <v>13152</v>
       </c>
       <c r="E13" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="H13" s="2">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="I13" s="2">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1137,28 +1143,28 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2">
-        <v>29654</v>
+        <v>36732</v>
       </c>
       <c r="E14" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G14" s="2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H14" s="2">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I14" s="2">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1166,31 +1172,31 @@
         <v>21</v>
       </c>
       <c r="B15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2">
-        <v>34133</v>
+        <v>29631</v>
       </c>
       <c r="E15" s="2">
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G15" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H15" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I15" s="2">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1201,28 +1207,28 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2">
-        <v>33203</v>
+        <v>34437</v>
       </c>
       <c r="E16" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G16" s="2">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H16" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I16" s="2">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1233,28 +1239,28 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2">
-        <v>34634</v>
+        <v>33727</v>
       </c>
       <c r="E17" s="2">
         <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G17" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I17" s="2">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1262,30 +1268,32 @@
         <v>24</v>
       </c>
       <c r="B18" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2">
-        <v>39822</v>
+        <v>34790</v>
       </c>
       <c r="E18" s="2">
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G18" s="2">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H18" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
@@ -1295,60 +1303,58 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2">
-        <v>32511</v>
+        <v>41107</v>
       </c>
       <c r="E19" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G19" s="2">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="H19" s="2">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="I19" s="2">
-        <v>9</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2">
-        <v>36605</v>
+        <v>32642</v>
       </c>
       <c r="E20" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G20" s="2">
         <v>21</v>
       </c>
       <c r="H20" s="2">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="I20" s="2">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1359,28 +1365,28 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2">
-        <v>35129</v>
+        <v>36688</v>
       </c>
       <c r="E21" s="2">
         <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G21" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H21" s="2">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I21" s="2">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1388,29 +1394,31 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2">
-        <v>21139</v>
+        <v>35288</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="G22" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I22" s="2">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1421,28 +1429,28 @@
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2">
-        <v>40759</v>
+        <v>21214</v>
       </c>
       <c r="E23" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2">
         <v>0</v>
       </c>
-      <c r="H23" s="2">
-        <v>41</v>
-      </c>
       <c r="I23" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1453,26 +1461,28 @@
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2">
-        <v>38681</v>
+        <v>40792</v>
       </c>
       <c r="E24" s="2">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="2">
         <v>0</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
-        <v>14</v>
-      </c>
       <c r="H24" s="2">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="I24" s="2">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1480,31 +1490,31 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2">
-        <v>7114</v>
+        <v>38698</v>
       </c>
       <c r="E25" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I25" s="2">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1515,17 +1525,19 @@
         <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2">
-        <v>6463</v>
+        <v>7417</v>
       </c>
       <c r="E26" s="2">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="2">
         <v>0</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
-        <v>1</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1534,7 +1546,7 @@
         <v>6</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1542,61 +1554,59 @@
         <v>33</v>
       </c>
       <c r="B27" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D27" s="2">
-        <v>6283</v>
+        <v>4699</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
+        <v>3</v>
+      </c>
+      <c r="H27" s="2">
         <v>1</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="2">
         <v>0</v>
       </c>
-      <c r="I27" s="2">
-        <v>9</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="2">
-        <v>6376</v>
+        <v>36158</v>
       </c>
       <c r="E28" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G28" s="2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I28" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1607,86 +1617,92 @@
         <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" s="2">
-        <v>36038</v>
+        <v>6314</v>
       </c>
       <c r="E29" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G29" s="2">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="H29" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="2">
+        <v>10</v>
+      </c>
       <c r="C30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30" s="2">
-        <v>35001</v>
+        <v>6790</v>
       </c>
       <c r="E30" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G30" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H30" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="2">
+        <v>10</v>
+      </c>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D31" s="2">
-        <v>30870</v>
+        <v>36556</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="G31" s="2">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H31" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I31" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1695,26 +1711,58 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D32" s="2">
-        <v>29785</v>
+        <v>28906</v>
       </c>
       <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="G32" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I32" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="2">
+        <v>34983</v>
+      </c>
+      <c r="E33" s="2">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="2">
+        <v>13</v>
+      </c>
+      <c r="H33" s="2">
+        <v>13</v>
+      </c>
+      <c r="I33" s="2">
+        <v>19</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +1770,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H29">
+  <conditionalFormatting sqref="A2:H31">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c6/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6/c6aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="105">
   <si>
     <t>player</t>
   </si>
@@ -55,16 +55,10 @@
     <t>cuteangel</t>
   </si>
   <si>
-    <t>Lava Blaze</t>
-  </si>
-  <si>
-    <t>MR.</t>
-  </si>
-  <si>
-    <t>Tsunami splash</t>
-  </si>
-  <si>
-    <t>XiXi</t>
+    <t>I am noob</t>
+  </si>
+  <si>
+    <t>PopCum🍿</t>
   </si>
   <si>
     <t>gkb</t>
@@ -97,9 +91,15 @@
     <t>Silent killer</t>
   </si>
   <si>
+    <t>dark rider at</t>
+  </si>
+  <si>
     <t>DOOM</t>
   </si>
   <si>
+    <t>David</t>
+  </si>
+  <si>
     <t>eric</t>
   </si>
   <si>
@@ -115,10 +115,10 @@
     <t>Enigma</t>
   </si>
   <si>
-    <t>ZacharySucks</t>
-  </si>
-  <si>
-    <t>⚔Sword Emperor⚔</t>
+    <t>Knightston</t>
+  </si>
+  <si>
+    <t>Terrific🎃🎃🎃</t>
   </si>
   <si>
     <t>LHC🥰DreamThree</t>
@@ -130,12 +130,6 @@
     <t>jem</t>
   </si>
   <si>
-    <t>SK|BAHODIR ™</t>
-  </si>
-  <si>
-    <t>Vierkay</t>
-  </si>
-  <si>
     <t>#JVQP8LLY</t>
   </si>
   <si>
@@ -145,16 +139,10 @@
     <t>#JJV99PV9</t>
   </si>
   <si>
-    <t>#2QPRUQJP2</t>
-  </si>
-  <si>
-    <t>#9V8GGUQRR</t>
-  </si>
-  <si>
-    <t>#82GLQ8VQJ</t>
-  </si>
-  <si>
-    <t>#CJ2Y202J</t>
+    <t>#8UGYRGYR8</t>
+  </si>
+  <si>
+    <t>#2GPGQ8JJR</t>
   </si>
   <si>
     <t>#J9CJGRLG</t>
@@ -187,9 +175,15 @@
     <t>#LCUGVC9R0</t>
   </si>
   <si>
+    <t>#8V9YQPYPL</t>
+  </si>
+  <si>
     <t>#CPJC0QUV</t>
   </si>
   <si>
+    <t>#9UPQVRQ</t>
+  </si>
+  <si>
     <t>#80VR8V9</t>
   </si>
   <si>
@@ -205,10 +199,10 @@
     <t>#QRCPQG02U</t>
   </si>
   <si>
-    <t>#G2GJPR2L2</t>
-  </si>
-  <si>
-    <t>#RV2RQQQC</t>
+    <t>#R89CUYPP</t>
+  </si>
+  <si>
+    <t>#LQL0U9VP2</t>
   </si>
   <si>
     <t>#LQQQ9YLL9</t>
@@ -220,10 +214,7 @@
     <t>#22LYUC8G8</t>
   </si>
   <si>
-    <t>#90RY2RLLY</t>
-  </si>
-  <si>
-    <t>#L2UVL80YC</t>
+    <t>Gold III</t>
   </si>
   <si>
     <t>Silver III</t>
@@ -232,16 +223,25 @@
     <t>Diamond I</t>
   </si>
   <si>
+    <t>Gold I</t>
+  </si>
+  <si>
+    <t>Mythic II</t>
+  </si>
+  <si>
+    <t>Diamond II</t>
+  </si>
+  <si>
+    <t>Diamond III</t>
+  </si>
+  <si>
+    <t>Mythic I</t>
+  </si>
+  <si>
     <t>Gold II</t>
   </si>
   <si>
-    <t>Diamond III</t>
-  </si>
-  <si>
-    <t>Diamond II</t>
-  </si>
-  <si>
-    <t>Mythic I</t>
+    <t>Silver II</t>
   </si>
   <si>
     <t xml:space="preserve">AMBER, BEA, BELLE, BIBI, BO, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CHESTER, ... </t>
@@ -253,16 +253,10 @@
     <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BO, BONNIE, BROCK, BULL, BUSTER, BUZZ, CARL, CHESTER, ... </t>
   </si>
   <si>
-    <t>DARRYL, EDGAR, EL PRIMO, GALE, JESSIE, LEON, SANDY, SPIKE, SURGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, COLETTE, CROW, DARRYL, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BROCK, BUSTER, CARL, CHESTER, COLETTE, CROW, EDGAR, FANG, GENE, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, CARL, CHESTER, COLETTE, COLT, ... </t>
+    <t>BONNIE, CARL, COLT, FANG, GENE, MORTIS, POCO, STU, SURGE</t>
+  </si>
+  <si>
+    <t>BELLE, EVE, PENNY, RICO, SURGE</t>
   </si>
   <si>
     <t>BROCK, BYRON, CROW, GRIFF, LEON, MAX, PENNY, PIPER, SPIKE, STU</t>
@@ -271,7 +265,7 @@
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
   </si>
   <si>
-    <t>BROCK, BUZZ, GROM, PENNY</t>
+    <t>BEA, BROCK, BUZZ, GROM, PENNY, SURGE</t>
   </si>
   <si>
     <t xml:space="preserve">ASH, BEA, BO, BUSTER, BYRON, CARL, CHESTER, COLETTE, CROW, DARRYL, GENE, GRIFF, ... </t>
@@ -286,49 +280,55 @@
     <t xml:space="preserve">BARLEY, BO, BONNIE, BROCK, CARL, CHESTER, COLT, CROW, DARRYL, EMZ, FRANK, GALE, ... </t>
   </si>
   <si>
-    <t>8-BIT, ASH, BULL, COLETTE, FANG, GRIFF, GUS, LEON, SPIKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, CHESTER, CROW, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BELLE, BUZZ, CARL, DYNAMIKE, EVE, GENE, GRIFF, GUS, LOLA, LOU, MAX, ... </t>
+    <t>SURGE</t>
+  </si>
+  <si>
+    <t>8-BIT, ASH, BULL, COLETTE, FANG, GRIFF, GROM, GUS, LEON, POCO, SPIKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELLE, BUSTER, CROW, EL PRIMO, EVE, FANG, GALE, GENE, JANET, LEON, LOLA, MANDY, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, CHESTER, COLETTE, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, BELLE, BROCK, COLT, EMZ, EVE, GALE, LEON, LOU, NITA, ROSA, SPROUT, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BUZZ, CARL, CROW, DYNAMIKE, EVE, GENE, GRIFF, GUS, LOLA, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, BARLEY, BEA, BONNIE, BROCK, CARL, CROW, DARRYL, EDGAR, EL PRIMO, EMZ, EVE, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BARLEY, BELLE, BIBI, BO, BYRON, COLT, CROW, DARRYL, EMZ, EVE, GRIFF, LOU, ... </t>
+    <t xml:space="preserve">8-BIT, BARLEY, BEA, BELLE, BIBI, BO, BROCK, BYRON, CARL, COLETTE, COLT, CROW, ... </t>
   </si>
   <si>
     <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, CHESTER, ... </t>
   </si>
   <si>
-    <t>BEA, BO, CARL, COLETTE, NITA, PENNY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA, BONNIE, CARL, CROW, EDGAR, GRIFF, MEG, MORTIS, PENNY, SPIKE, STU, SURGE, ... </t>
-  </si>
-  <si>
-    <t>CARL, DARRYL, FANG, GENE, GUS, JACKY, PENNY, RICO, TICK</t>
-  </si>
-  <si>
-    <t>BROCK, CARL, PENNY, POCO</t>
-  </si>
-  <si>
-    <t>BROCK, BUZZ, GRIFF, GROM, PENNY, PIPER, POCO, SPIKE</t>
-  </si>
-  <si>
-    <t>BO, BROCK, CROW, GRIFF, SANDY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BIBI, BO, BONNIE, BULL, CHESTER, COLT, CROW, DARRYL, EDGAR, EL PRIMO, ... </t>
+    <t>BEA, BO, CARL, COLETTE, MAX, NITA, PENNY</t>
+  </si>
+  <si>
+    <t>BELLE, BYRON, DARRYL, EMZ, ROSA, SANDY, SPIKE, TARA, TICK</t>
+  </si>
+  <si>
+    <t>BEA, CARL, COLT, JANET, POCO, RICO, RUFFS</t>
+  </si>
+  <si>
+    <t>8-BIT, CARL, DARRYL, FANG, GENE, GUS, JACKY, PENNY, RICO, TICK</t>
+  </si>
+  <si>
+    <t>BROCK, CARL, PENNY, POCO, SURGE</t>
+  </si>
+  <si>
+    <t>BROCK, BUZZ, CROW, GRIFF, GROM, PENNY, PIPER, POCO, SPIKE, SURGE</t>
   </si>
   <si>
     <t>C6 Brawler Levels</t>
   </si>
   <si>
-    <t>2023-03-16</t>
+    <t>2023-03-29</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS33"/>
+  <dimension ref="A1:AS31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -767,15 +767,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2">
-        <v>36423</v>
+        <v>36676</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="G2" s="2">
         <v>18</v>
       </c>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>76</v>
@@ -829,15 +831,17 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2">
-        <v>36423</v>
+        <v>36676</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="G4" s="2">
         <v>18</v>
       </c>
@@ -845,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>76</v>
@@ -859,22 +863,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2">
-        <v>31035</v>
+        <v>31223</v>
       </c>
       <c r="E5" s="2">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="2">
         <v>15</v>
@@ -891,25 +895,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2">
-        <v>38611</v>
+        <v>39457</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
       </c>
       <c r="I6" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>78</v>
@@ -923,22 +927,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2">
-        <v>25611</v>
+        <v>31474</v>
       </c>
       <c r="E7" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G7" s="2">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I7" s="2">
         <v>9</v>
@@ -952,28 +956,28 @@
         <v>14</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2">
-        <v>36450</v>
+        <v>6573</v>
       </c>
       <c r="E8" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
         <v>5</v>
-      </c>
-      <c r="I8" s="2">
-        <v>30</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>80</v>
@@ -984,26 +988,26 @@
         <v>15</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2">
-        <v>39135</v>
+        <v>37611</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H9" s="2">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I9" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>81</v>
@@ -1017,25 +1021,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2">
-        <v>35057</v>
+        <v>42228</v>
       </c>
       <c r="E10" s="2">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G10" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I10" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>82</v>
@@ -1046,26 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B11" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2">
-        <v>37580</v>
+        <v>13271</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G11" s="2">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I11" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>83</v>
@@ -1076,28 +1082,28 @@
         <v>18</v>
       </c>
       <c r="B12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2">
-        <v>42112</v>
+        <v>36855</v>
       </c>
       <c r="E12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G12" s="2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H12" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I12" s="2">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>84</v>
@@ -1111,25 +1117,25 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2">
-        <v>13152</v>
+        <v>29739</v>
       </c>
       <c r="E13" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
       </c>
       <c r="H13" s="2">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I13" s="2">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>85</v>
@@ -1140,28 +1146,28 @@
         <v>20</v>
       </c>
       <c r="B14" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2">
-        <v>36732</v>
+        <v>34730</v>
       </c>
       <c r="E14" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G14" s="2">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I14" s="2">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>86</v>
@@ -1172,28 +1178,28 @@
         <v>21</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2">
-        <v>29631</v>
+        <v>33764</v>
       </c>
       <c r="E15" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H15" s="2">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I15" s="2">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>87</v>
@@ -1207,28 +1213,28 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2">
-        <v>34437</v>
+        <v>35065</v>
       </c>
       <c r="E16" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H16" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1236,31 +1242,31 @@
         <v>23</v>
       </c>
       <c r="B17" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2">
-        <v>33727</v>
+        <v>42630</v>
       </c>
       <c r="E17" s="2">
         <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G17" s="2">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H17" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I17" s="2">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1268,31 +1274,31 @@
         <v>24</v>
       </c>
       <c r="B18" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2">
-        <v>34790</v>
+        <v>32703</v>
       </c>
       <c r="E18" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G18" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I18" s="2">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1303,58 +1309,60 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2">
-        <v>41107</v>
+        <v>40382</v>
       </c>
       <c r="E19" s="2">
         <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" s="2">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H19" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2">
-        <v>32642</v>
+        <v>36800</v>
       </c>
       <c r="E20" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G20" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H20" s="2">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I20" s="2">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1365,28 +1373,28 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2">
-        <v>36688</v>
+        <v>39159</v>
       </c>
       <c r="E21" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G21" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H21" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I21" s="2">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1397,28 +1405,28 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" s="2">
-        <v>35288</v>
+        <v>35294</v>
       </c>
       <c r="E22" s="2">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G22" s="2">
         <v>20</v>
       </c>
       <c r="H22" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I22" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1429,19 +1437,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" s="2">
-        <v>21214</v>
+        <v>21306</v>
       </c>
       <c r="E23" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G23" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1450,7 +1458,7 @@
         <v>27</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1461,28 +1469,28 @@
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" s="2">
-        <v>40792</v>
+        <v>41146</v>
       </c>
       <c r="E24" s="2">
         <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I24" s="2">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1493,28 +1501,28 @@
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" s="2">
-        <v>38698</v>
+        <v>38680</v>
       </c>
       <c r="E25" s="2">
         <v>8</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G25" s="2">
         <v>14</v>
       </c>
       <c r="H25" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I25" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1525,28 +1533,28 @@
         <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="2">
-        <v>7417</v>
+        <v>8110</v>
       </c>
       <c r="E26" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1557,25 +1565,29 @@
         <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" s="2">
-        <v>4699</v>
+        <v>30357</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G27" s="2">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
@@ -1585,28 +1597,28 @@
         <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D28" s="2">
-        <v>36158</v>
+        <v>7021</v>
       </c>
       <c r="E28" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G28" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I28" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1617,7 +1629,7 @@
         <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D29" s="2">
         <v>6314</v>
@@ -1626,7 +1638,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G29" s="2">
         <v>2</v>
@@ -1635,10 +1647,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1649,16 +1661,16 @@
         <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30" s="2">
-        <v>6790</v>
+        <v>7428</v>
       </c>
       <c r="E30" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G30" s="2">
         <v>3</v>
@@ -1667,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1681,87 +1693,27 @@
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D31" s="2">
-        <v>36556</v>
+        <v>37191</v>
       </c>
       <c r="E31" s="2">
         <v>13</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G31" s="2">
         <v>41</v>
       </c>
       <c r="H31" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I31" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="2">
-        <v>28906</v>
-      </c>
-      <c r="E32" s="2">
-        <v>10</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="2">
-        <v>29</v>
-      </c>
-      <c r="H32" s="2">
-        <v>10</v>
-      </c>
-      <c r="I32" s="2">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="2">
-        <v>34983</v>
-      </c>
-      <c r="E33" s="2">
-        <v>11</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="2">
-        <v>13</v>
-      </c>
-      <c r="H33" s="2">
-        <v>13</v>
-      </c>
-      <c r="I33" s="2">
-        <v>19</v>
-      </c>
-      <c r="J33" s="3" t="s">
         <v>102</v>
       </c>
     </row>

--- a/output/c6/c6aurac_brawler_levels_team.xlsx
+++ b/output/c6/c6aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
   <si>
     <t>player</t>
   </si>
@@ -58,6 +58,9 @@
     <t>I am noob</t>
   </si>
   <si>
+    <t>Toxic</t>
+  </si>
+  <si>
     <t>PopCum🍿</t>
   </si>
   <si>
@@ -121,13 +124,13 @@
     <t>Terrific🎃🎃🎃</t>
   </si>
   <si>
-    <t>LHC🥰DreamThree</t>
-  </si>
-  <si>
-    <t>SilverBlue</t>
-  </si>
-  <si>
-    <t>jem</t>
+    <t>Brawler</t>
+  </si>
+  <si>
+    <t>Yuhan❤️Donut</t>
+  </si>
+  <si>
+    <t>Rohan Beast</t>
   </si>
   <si>
     <t>#JVQP8LLY</t>
@@ -142,6 +145,9 @@
     <t>#8UGYRGYR8</t>
   </si>
   <si>
+    <t>#9VUCGRJYC</t>
+  </si>
+  <si>
     <t>#2GPGQ8JJR</t>
   </si>
   <si>
@@ -205,13 +211,13 @@
     <t>#LQL0U9VP2</t>
   </si>
   <si>
-    <t>#LQQQ9YLL9</t>
-  </si>
-  <si>
-    <t>#2JR0CJCRY</t>
-  </si>
-  <si>
-    <t>#22LYUC8G8</t>
+    <t>#L0PLG0Q0</t>
+  </si>
+  <si>
+    <t>#9GPUJJ9QJ</t>
+  </si>
+  <si>
+    <t>#92L0J8JLG</t>
   </si>
   <si>
     <t>Gold III</t>
@@ -220,28 +226,31 @@
     <t>Silver III</t>
   </si>
   <si>
+    <t>Diamond II</t>
+  </si>
+  <si>
     <t>Diamond I</t>
   </si>
   <si>
-    <t>Gold I</t>
+    <t>Silver II</t>
+  </si>
+  <si>
+    <t>Legend I</t>
+  </si>
+  <si>
+    <t>Diamond III</t>
+  </si>
+  <si>
+    <t>Mythic I</t>
   </si>
   <si>
     <t>Mythic II</t>
   </si>
   <si>
-    <t>Diamond II</t>
-  </si>
-  <si>
-    <t>Diamond III</t>
-  </si>
-  <si>
-    <t>Mythic I</t>
-  </si>
-  <si>
     <t>Gold II</t>
   </si>
   <si>
-    <t>Silver II</t>
+    <t>Bronze I</t>
   </si>
   <si>
     <t xml:space="preserve">AMBER, BEA, BELLE, BIBI, BO, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CHESTER, ... </t>
@@ -253,13 +262,16 @@
     <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BO, BONNIE, BROCK, BULL, BUSTER, BUZZ, CARL, CHESTER, ... </t>
   </si>
   <si>
-    <t>BONNIE, CARL, COLT, FANG, GENE, MORTIS, POCO, STU, SURGE</t>
-  </si>
-  <si>
-    <t>BELLE, EVE, PENNY, RICO, SURGE</t>
-  </si>
-  <si>
-    <t>BROCK, BYRON, CROW, GRIFF, LEON, MAX, PENNY, PIPER, SPIKE, STU</t>
+    <t>BONNIE, BROCK, CARL, COLT, FANG, GENE, MORTIS, NITA, PENNY, POCO, STU, SURGE</t>
+  </si>
+  <si>
+    <t>FANG, JANET, SPIKE</t>
+  </si>
+  <si>
+    <t>BELLE, EVE, OTIS, PENNY, RICO, SURGE</t>
+  </si>
+  <si>
+    <t>BROCK, BYRON, CHESTER, CROW, EVE, GRIFF, LEON, MAX, PENNY, PIPER, SPIKE, STU</t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, ... </t>
@@ -268,7 +280,7 @@
     <t>BEA, BROCK, BUZZ, GROM, PENNY, SURGE</t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BEA, BO, BUSTER, BYRON, CARL, CHESTER, COLETTE, CROW, DARRYL, GENE, GRIFF, ... </t>
+    <t xml:space="preserve">ASH, BEA, BO, BUSTER, BYRON, CARL, CHESTER, COLETTE, CROW, DARRYL, EMZ, GENE, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BEA, BELLE, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, CHESTER, ... </t>
@@ -277,13 +289,13 @@
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BELLE, BIBI, BO, BONNIE, BROCK, BUSTER, BUZZ, BYRON, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BARLEY, BO, BONNIE, BROCK, CARL, CHESTER, COLT, CROW, DARRYL, EMZ, FRANK, GALE, ... </t>
+    <t xml:space="preserve">BARLEY, BIBI, BO, BONNIE, BROCK, BULL, BUSTER, BUZZ, BYRON, CARL, CHESTER, COLETTE, ... </t>
   </si>
   <si>
     <t>SURGE</t>
   </si>
   <si>
-    <t>8-BIT, ASH, BULL, COLETTE, FANG, GRIFF, GROM, GUS, LEON, POCO, SPIKE</t>
+    <t>8-BIT, ASH, BULL, COLETTE, FANG, GENE, GRIFF, GROM, GUS, LEON, POCO, SPIKE</t>
   </si>
   <si>
     <t xml:space="preserve">BELLE, BUSTER, CROW, EL PRIMO, EVE, FANG, GALE, GENE, JANET, LEON, LOLA, MANDY, ... </t>
@@ -292,13 +304,13 @@
     <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, CHESTER, COLETTE, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, BELLE, BROCK, COLT, EMZ, EVE, GALE, LEON, LOU, NITA, ROSA, SPROUT, ... </t>
+    <t xml:space="preserve">8-BIT, BELLE, BROCK, COLT, EMZ, EVE, GALE, LEON, LOU, NITA, POCO, ROSA, ... </t>
   </si>
   <si>
     <t xml:space="preserve">ASH, BEA, BELLE, BUZZ, CARL, CROW, DYNAMIKE, EVE, GENE, GRIFF, GUS, LOLA, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, BARLEY, BEA, BONNIE, BROCK, CARL, CROW, DARRYL, EDGAR, EL PRIMO, EMZ, EVE, ... </t>
+    <t xml:space="preserve">8-BIT, AMBER, BARLEY, BEA, BONNIE, BROCK, CARL, CROW, DARRYL, EDGAR, EL PRIMO, EMZ, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, BARLEY, BEA, BELLE, BIBI, BO, BROCK, BYRON, CARL, COLETTE, COLT, CROW, ... </t>
@@ -307,28 +319,25 @@
     <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BUSTER, BUZZ, CARL, CHESTER, ... </t>
   </si>
   <si>
-    <t>BEA, BO, CARL, COLETTE, MAX, NITA, PENNY</t>
-  </si>
-  <si>
-    <t>BELLE, BYRON, DARRYL, EMZ, ROSA, SANDY, SPIKE, TARA, TICK</t>
+    <t>BEA, BO, CARL, COLETTE, MAX, NITA, PENNY, SURGE</t>
+  </si>
+  <si>
+    <t>BELLE, BO, BYRON, DARRYL, EMZ, FRANK, GENE, ROSA, SANDY, SPIKE, TARA, TICK</t>
   </si>
   <si>
     <t>BEA, CARL, COLT, JANET, POCO, RICO, RUFFS</t>
   </si>
   <si>
-    <t>8-BIT, CARL, DARRYL, FANG, GENE, GUS, JACKY, PENNY, RICO, TICK</t>
-  </si>
-  <si>
-    <t>BROCK, CARL, PENNY, POCO, SURGE</t>
-  </si>
-  <si>
-    <t>BROCK, BUZZ, CROW, GRIFF, GROM, PENNY, PIPER, POCO, SPIKE, SURGE</t>
+    <t>DYNAMIKE, JANET, MAX, MORTIS, TICK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIBI, CHESTER, CROW, FANG, FRANK, GRIFF, JACKY, MANDY, MAX, MEG, MORTIS, SAM, ... </t>
   </si>
   <si>
     <t>C6 Brawler Levels</t>
   </si>
   <si>
-    <t>2023-03-29</t>
+    <t>2023-04-14</t>
   </si>
 </sst>
 </file>
@@ -699,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS31"/>
+  <dimension ref="A1:AS32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,7 +721,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -761,34 +770,34 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2">
-        <v>36676</v>
+        <v>37828</v>
       </c>
       <c r="E2" s="2">
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -831,28 +840,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2">
-        <v>36676</v>
+        <v>37828</v>
       </c>
       <c r="E4" s="2">
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -863,28 +872,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2">
-        <v>31223</v>
+        <v>31312</v>
       </c>
       <c r="E5" s="2">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G5" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I5" s="2">
         <v>15</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -895,28 +904,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2">
-        <v>39457</v>
+        <v>40004</v>
       </c>
       <c r="E6" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
       </c>
       <c r="I6" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -927,28 +936,28 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2">
-        <v>31474</v>
+        <v>31872</v>
       </c>
       <c r="E7" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G7" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -956,31 +965,31 @@
         <v>14</v>
       </c>
       <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2">
+        <v>20528</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="2">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6573</v>
-      </c>
-      <c r="E8" s="2">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4</v>
-      </c>
-      <c r="H8" s="2">
-        <v>4</v>
-      </c>
-      <c r="I8" s="2">
-        <v>5</v>
-      </c>
       <c r="J8" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -991,26 +1000,28 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2">
-        <v>37611</v>
+        <v>6770</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G9" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="I9" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1021,28 +1032,28 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2">
-        <v>42228</v>
+        <v>37672</v>
       </c>
       <c r="E10" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H10" s="2">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="I10" s="2">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1050,31 +1061,31 @@
         <v>17</v>
       </c>
       <c r="B11" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2">
-        <v>13271</v>
+        <v>43071</v>
       </c>
       <c r="E11" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="I11" s="2">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1085,28 +1096,28 @@
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2">
-        <v>36855</v>
+        <v>13296</v>
       </c>
       <c r="E12" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G12" s="2">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="H12" s="2">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I12" s="2">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1117,28 +1128,28 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2">
-        <v>29739</v>
+        <v>36836</v>
       </c>
       <c r="E13" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G13" s="2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H13" s="2">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2">
         <v>25</v>
       </c>
-      <c r="I13" s="2">
-        <v>37</v>
-      </c>
       <c r="J13" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1146,31 +1157,31 @@
         <v>20</v>
       </c>
       <c r="B14" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2">
-        <v>34730</v>
+        <v>29739</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I14" s="2">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1181,28 +1192,28 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2">
-        <v>33764</v>
+        <v>35071</v>
       </c>
       <c r="E15" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G15" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I15" s="2">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1213,28 +1224,28 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2">
-        <v>35065</v>
+        <v>34060</v>
       </c>
       <c r="E16" s="2">
         <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G16" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1242,31 +1253,31 @@
         <v>23</v>
       </c>
       <c r="B17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2">
-        <v>42630</v>
+        <v>35342</v>
       </c>
       <c r="E17" s="2">
         <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G17" s="2">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H17" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1277,28 +1288,28 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2">
-        <v>32703</v>
+        <v>44739</v>
       </c>
       <c r="E18" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G18" s="2">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H18" s="2">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I18" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1309,28 +1320,28 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2">
-        <v>40382</v>
+        <v>32989</v>
       </c>
       <c r="E19" s="2">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="2">
+        <v>19</v>
+      </c>
+      <c r="H19" s="2">
+        <v>34</v>
+      </c>
+      <c r="I19" s="2">
         <v>12</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="2">
-        <v>18</v>
-      </c>
-      <c r="H19" s="2">
-        <v>25</v>
-      </c>
-      <c r="I19" s="2">
-        <v>21</v>
-      </c>
       <c r="J19" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1338,31 +1349,31 @@
         <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2">
-        <v>36800</v>
+        <v>40822</v>
       </c>
       <c r="E20" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G20" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H20" s="2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I20" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1373,28 +1384,28 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2">
-        <v>39159</v>
+        <v>37233</v>
       </c>
       <c r="E21" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G21" s="2">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H21" s="2">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I21" s="2">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1405,28 +1416,28 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2">
-        <v>35294</v>
+        <v>39869</v>
       </c>
       <c r="E22" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G22" s="2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H22" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I22" s="2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1434,31 +1445,31 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" s="2">
-        <v>21306</v>
+        <v>35409</v>
       </c>
       <c r="E23" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G23" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I23" s="2">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1469,28 +1480,28 @@
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2">
-        <v>41146</v>
+        <v>21428</v>
       </c>
       <c r="E24" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2">
         <v>0</v>
       </c>
-      <c r="H24" s="2">
-        <v>26</v>
-      </c>
       <c r="I24" s="2">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1501,28 +1512,28 @@
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D25" s="2">
-        <v>38680</v>
+        <v>41415</v>
       </c>
       <c r="E25" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G25" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I25" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1530,31 +1541,31 @@
         <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D26" s="2">
-        <v>8110</v>
+        <v>38672</v>
       </c>
       <c r="E26" s="2">
+        <v>8</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="2">
         <v>14</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26" s="2">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1565,28 +1576,28 @@
         <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2">
-        <v>30357</v>
+        <v>8709</v>
       </c>
       <c r="E27" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G27" s="2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1597,28 +1608,28 @@
         <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28" s="2">
-        <v>7021</v>
+        <v>30498</v>
       </c>
       <c r="E28" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G28" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H28" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I28" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1626,31 +1637,31 @@
         <v>35</v>
       </c>
       <c r="B29" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29" s="2">
-        <v>6314</v>
+        <v>7320</v>
       </c>
       <c r="E29" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G29" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1661,29 +1672,27 @@
         <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D30" s="2">
-        <v>7428</v>
+        <v>2144</v>
       </c>
       <c r="E30" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G30" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
         <v>0</v>
       </c>
-      <c r="I30" s="2">
-        <v>5</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
@@ -1693,28 +1702,58 @@
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D31" s="2">
-        <v>37191</v>
+        <v>23194</v>
       </c>
       <c r="E31" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G31" s="2">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H31" s="2">
+        <v>4</v>
+      </c>
+      <c r="I31" s="2">
+        <v>5</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="2">
+        <v>34311</v>
+      </c>
+      <c r="E32" s="2">
         <v>12</v>
       </c>
-      <c r="I31" s="2">
-        <v>10</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>102</v>
+      <c r="F32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="2">
+        <v>20</v>
+      </c>
+      <c r="H32" s="2">
+        <v>26</v>
+      </c>
+      <c r="I32" s="2">
+        <v>14</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
